--- a/simulations/MonteCarloSimulations_2024_11_22.xlsx
+++ b/simulations/MonteCarloSimulations_2024_11_22.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DI76"/>
+  <dimension ref="A1:DI96"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26725,6 +26725,6866 @@
         <v>0.5921328900504219</v>
       </c>
     </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="n">
+        <v>2.08541701447546</v>
+      </c>
+      <c r="C77" t="n">
+        <v>0.56165158377747</v>
+      </c>
+      <c r="D77" t="n">
+        <v>1.505796528945037</v>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>GP</t>
+        </is>
+      </c>
+      <c r="F77" t="n">
+        <v>2.946774271993369</v>
+      </c>
+      <c r="G77" t="n">
+        <v>10.50714578078452</v>
+      </c>
+      <c r="H77" t="n">
+        <v>1800.006409807285</v>
+      </c>
+      <c r="I77" t="n">
+        <v>10</v>
+      </c>
+      <c r="J77" t="n">
+        <v>0</v>
+      </c>
+      <c r="K77" t="n">
+        <v>0</v>
+      </c>
+      <c r="L77" t="n">
+        <v>0</v>
+      </c>
+      <c r="M77" t="n">
+        <v>0</v>
+      </c>
+      <c r="N77" t="n">
+        <v>0</v>
+      </c>
+      <c r="O77" t="n">
+        <v>0</v>
+      </c>
+      <c r="P77" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>0</v>
+      </c>
+      <c r="R77" t="n">
+        <v>0</v>
+      </c>
+      <c r="S77" t="n">
+        <v>0</v>
+      </c>
+      <c r="T77" t="n">
+        <v>9.87029313254383e-05</v>
+      </c>
+      <c r="U77" t="n">
+        <v>1.366131969943404</v>
+      </c>
+      <c r="V77" t="n">
+        <v>20.96174413688521</v>
+      </c>
+      <c r="W77" t="n">
+        <v>41.85370259853268</v>
+      </c>
+      <c r="X77" t="n">
+        <v>42.53975753666353</v>
+      </c>
+      <c r="Y77" t="n">
+        <v>43.82967172906891</v>
+      </c>
+      <c r="Z77" t="n">
+        <v>46.16899509284069</v>
+      </c>
+      <c r="AA77" t="n">
+        <v>50.2049376610769</v>
+      </c>
+      <c r="AB77" t="n">
+        <v>56.7260727075918</v>
+      </c>
+      <c r="AC77" t="n">
+        <v>66.35038687545348</v>
+      </c>
+      <c r="AD77" t="n">
+        <v>78.86443089009951</v>
+      </c>
+      <c r="AE77" t="n">
+        <v>92.3960609959092</v>
+      </c>
+      <c r="AF77" t="n">
+        <v>100</v>
+      </c>
+      <c r="AG77" t="n">
+        <v>100</v>
+      </c>
+      <c r="AH77" t="n">
+        <v>100</v>
+      </c>
+      <c r="AI77" t="n">
+        <v>100</v>
+      </c>
+      <c r="AJ77" t="n">
+        <v>100</v>
+      </c>
+      <c r="AK77" t="n">
+        <v>100</v>
+      </c>
+      <c r="AL77" t="n">
+        <v>100</v>
+      </c>
+      <c r="AM77" t="n">
+        <v>100</v>
+      </c>
+      <c r="AN77" t="n">
+        <v>100</v>
+      </c>
+      <c r="AO77" t="n">
+        <v>100</v>
+      </c>
+      <c r="AP77" t="n">
+        <v>100</v>
+      </c>
+      <c r="AQ77" t="n">
+        <v>100</v>
+      </c>
+      <c r="AR77" t="n">
+        <v>100</v>
+      </c>
+      <c r="AS77" t="n">
+        <v>100</v>
+      </c>
+      <c r="AT77" t="n">
+        <v>100</v>
+      </c>
+      <c r="AU77" t="n">
+        <v>100</v>
+      </c>
+      <c r="AV77" t="n">
+        <v>100</v>
+      </c>
+      <c r="AW77" t="n">
+        <v>100</v>
+      </c>
+      <c r="AX77" t="n">
+        <v>100</v>
+      </c>
+      <c r="AY77" t="n">
+        <v>100</v>
+      </c>
+      <c r="AZ77" t="n">
+        <v>100</v>
+      </c>
+      <c r="BA77" t="n">
+        <v>100</v>
+      </c>
+      <c r="BB77" t="n">
+        <v>100</v>
+      </c>
+      <c r="BC77" t="n">
+        <v>100</v>
+      </c>
+      <c r="BD77" t="n">
+        <v>100</v>
+      </c>
+      <c r="BE77" t="n">
+        <v>100</v>
+      </c>
+      <c r="BF77" t="n">
+        <v>100</v>
+      </c>
+      <c r="BG77" t="n">
+        <v>100</v>
+      </c>
+      <c r="BH77" t="n">
+        <v>3.498230014245307</v>
+      </c>
+      <c r="BI77" t="n">
+        <v>3.531202358775451</v>
+      </c>
+      <c r="BJ77" t="n">
+        <v>3.647178680430414</v>
+      </c>
+      <c r="BK77" t="n">
+        <v>3.715343846416657</v>
+      </c>
+      <c r="BL77" t="n">
+        <v>3.785979968928663</v>
+      </c>
+      <c r="BM77" t="n">
+        <v>3.972133336896868</v>
+      </c>
+      <c r="BN77" t="n">
+        <v>6.258052289475853</v>
+      </c>
+      <c r="BO77" t="n">
+        <v>7.295268392255894</v>
+      </c>
+      <c r="BP77" t="n">
+        <v>8.070264376811714</v>
+      </c>
+      <c r="BQ77" t="n">
+        <v>8.424256783493306</v>
+      </c>
+      <c r="BR77" t="n">
+        <v>8.772291009742405</v>
+      </c>
+      <c r="BS77" t="n">
+        <v>9.494196533784043</v>
+      </c>
+      <c r="BT77" t="n">
+        <v>2</v>
+      </c>
+      <c r="BU77" t="n">
+        <v>0.2186529780256369</v>
+      </c>
+      <c r="BV77" t="n">
+        <v>10</v>
+      </c>
+      <c r="BW77" t="n">
+        <v>2</v>
+      </c>
+      <c r="BX77" t="n">
+        <v>2</v>
+      </c>
+      <c r="BY77" t="n">
+        <v>2</v>
+      </c>
+      <c r="BZ77" t="n">
+        <v>2</v>
+      </c>
+      <c r="CA77" t="n">
+        <v>2</v>
+      </c>
+      <c r="CB77" t="n">
+        <v>2</v>
+      </c>
+      <c r="CC77" t="n">
+        <v>2</v>
+      </c>
+      <c r="CD77" t="n">
+        <v>2</v>
+      </c>
+      <c r="CE77" t="n">
+        <v>2</v>
+      </c>
+      <c r="CF77" t="n">
+        <v>2</v>
+      </c>
+      <c r="CG77" t="n">
+        <v>2</v>
+      </c>
+      <c r="CH77" t="n">
+        <v>2</v>
+      </c>
+      <c r="CI77" t="n">
+        <v>2</v>
+      </c>
+      <c r="CJ77" t="n">
+        <v>2</v>
+      </c>
+      <c r="CK77" t="n">
+        <v>2</v>
+      </c>
+      <c r="CL77" t="n">
+        <v>2</v>
+      </c>
+      <c r="CM77" t="n">
+        <v>0.5522005305747797</v>
+      </c>
+      <c r="CN77" t="n">
+        <v>3.930561688465531</v>
+      </c>
+      <c r="CO77" t="n">
+        <v>0.7506621998268059</v>
+      </c>
+      <c r="CP77" t="n">
+        <v>0.6374493908951564</v>
+      </c>
+      <c r="CQ77" t="n">
+        <v>0.858214592393935</v>
+      </c>
+      <c r="CR77" t="n">
+        <v>0.9408271785767255</v>
+      </c>
+      <c r="CS77" t="n">
+        <v>1.02643013699528</v>
+      </c>
+      <c r="CT77" t="n">
+        <v>1.057774688779475</v>
+      </c>
+      <c r="CU77" t="n">
+        <v>0.8378371901762733</v>
+      </c>
+      <c r="CV77" t="n">
+        <v>1.579773667360342</v>
+      </c>
+      <c r="CW77" t="n">
+        <v>1.583648027345404</v>
+      </c>
+      <c r="CX77" t="n">
+        <v>0.5912729757256585</v>
+      </c>
+      <c r="CY77" t="n">
+        <v>1.336933264884522</v>
+      </c>
+      <c r="CZ77" t="n">
+        <v>2.910356759090376</v>
+      </c>
+      <c r="DA77" t="n">
+        <v>0.3889778282042542</v>
+      </c>
+      <c r="DB77" t="n">
+        <v>1.642590529075719</v>
+      </c>
+      <c r="DC77" t="n">
+        <v>0.7836634065953589</v>
+      </c>
+      <c r="DD77" t="n">
+        <v>1.221051285921845</v>
+      </c>
+      <c r="DE77" t="n">
+        <v>1.345531014839167</v>
+      </c>
+      <c r="DF77" t="n">
+        <v>0.8943085472918063</v>
+      </c>
+      <c r="DG77" t="n">
+        <v>0.880968769977701</v>
+      </c>
+      <c r="DH77" t="n">
+        <v>2.23636462611982</v>
+      </c>
+      <c r="DI77" t="n">
+        <v>0.2481960603792702</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="n">
+        <v>1.579819190356157</v>
+      </c>
+      <c r="C78" t="n">
+        <v>1.052267395890105</v>
+      </c>
+      <c r="D78" t="n">
+        <v>1.185002204442655</v>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>GP</t>
+        </is>
+      </c>
+      <c r="F78" t="n">
+        <v>6.348303532144478</v>
+      </c>
+      <c r="G78" t="n">
+        <v>126.5298680975885</v>
+      </c>
+      <c r="H78" t="n">
+        <v>1800.039544700599</v>
+      </c>
+      <c r="I78" t="n">
+        <v>50</v>
+      </c>
+      <c r="J78" t="n">
+        <v>0</v>
+      </c>
+      <c r="K78" t="n">
+        <v>0</v>
+      </c>
+      <c r="L78" t="n">
+        <v>0</v>
+      </c>
+      <c r="M78" t="n">
+        <v>0</v>
+      </c>
+      <c r="N78" t="n">
+        <v>0</v>
+      </c>
+      <c r="O78" t="n">
+        <v>0</v>
+      </c>
+      <c r="P78" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>0</v>
+      </c>
+      <c r="R78" t="n">
+        <v>0</v>
+      </c>
+      <c r="S78" t="n">
+        <v>0</v>
+      </c>
+      <c r="T78" t="n">
+        <v>0</v>
+      </c>
+      <c r="U78" t="n">
+        <v>0</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="n">
+        <v>0</v>
+      </c>
+      <c r="X78" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y78" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z78" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA78" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB78" t="n">
+        <v>0.004118267007201832</v>
+      </c>
+      <c r="AC78" t="n">
+        <v>0.0134951705124514</v>
+      </c>
+      <c r="AD78" t="n">
+        <v>0.03212489811896783</v>
+      </c>
+      <c r="AE78" t="n">
+        <v>0.06349296731927383</v>
+      </c>
+      <c r="AF78" t="n">
+        <v>0.1225927586006732</v>
+      </c>
+      <c r="AG78" t="n">
+        <v>0.2340918609376461</v>
+      </c>
+      <c r="AH78" t="n">
+        <v>0.4155199876650564</v>
+      </c>
+      <c r="AI78" t="n">
+        <v>0.7450480871613677</v>
+      </c>
+      <c r="AJ78" t="n">
+        <v>1.293149736262736</v>
+      </c>
+      <c r="AK78" t="n">
+        <v>2.312737661416576</v>
+      </c>
+      <c r="AL78" t="n">
+        <v>4.021537523956252</v>
+      </c>
+      <c r="AM78" t="n">
+        <v>6.840605923317924</v>
+      </c>
+      <c r="AN78" t="n">
+        <v>11.44621330753414</v>
+      </c>
+      <c r="AO78" t="n">
+        <v>18.61059465158115</v>
+      </c>
+      <c r="AP78" t="n">
+        <v>29.04651755519795</v>
+      </c>
+      <c r="AQ78" t="n">
+        <v>43.14096102294429</v>
+      </c>
+      <c r="AR78" t="n">
+        <v>60.63652198722144</v>
+      </c>
+      <c r="AS78" t="n">
+        <v>78.61035234942075</v>
+      </c>
+      <c r="AT78" t="n">
+        <v>84.03370495682455</v>
+      </c>
+      <c r="AU78" t="n">
+        <v>84.04616838156063</v>
+      </c>
+      <c r="AV78" t="n">
+        <v>84.1640633912444</v>
+      </c>
+      <c r="AW78" t="n">
+        <v>84.57508356556556</v>
+      </c>
+      <c r="AX78" t="n">
+        <v>85.21937900190886</v>
+      </c>
+      <c r="AY78" t="n">
+        <v>86.54770124440373</v>
+      </c>
+      <c r="AZ78" t="n">
+        <v>88.95878162161127</v>
+      </c>
+      <c r="BA78" t="n">
+        <v>93.16329704604354</v>
+      </c>
+      <c r="BB78" t="n">
+        <v>97.58364081126999</v>
+      </c>
+      <c r="BC78" t="n">
+        <v>100</v>
+      </c>
+      <c r="BD78" t="n">
+        <v>100</v>
+      </c>
+      <c r="BE78" t="n">
+        <v>100</v>
+      </c>
+      <c r="BF78" t="n">
+        <v>100</v>
+      </c>
+      <c r="BG78" t="n">
+        <v>100</v>
+      </c>
+      <c r="BH78" t="n">
+        <v>24.90442126865614</v>
+      </c>
+      <c r="BI78" t="n">
+        <v>25.88261773836593</v>
+      </c>
+      <c r="BJ78" t="n">
+        <v>29.01886783334533</v>
+      </c>
+      <c r="BK78" t="n">
+        <v>30.63613031925153</v>
+      </c>
+      <c r="BL78" t="n">
+        <v>32.11021426788977</v>
+      </c>
+      <c r="BM78" t="n">
+        <v>34.6936991245523</v>
+      </c>
+      <c r="BN78" t="n">
+        <v>37.05033930807748</v>
+      </c>
+      <c r="BO78" t="n">
+        <v>39.34448264493701</v>
+      </c>
+      <c r="BP78" t="n">
+        <v>41.77394207011708</v>
+      </c>
+      <c r="BQ78" t="n">
+        <v>43.02018015705398</v>
+      </c>
+      <c r="BR78" t="n">
+        <v>44.47665600148891</v>
+      </c>
+      <c r="BS78" t="n">
+        <v>97.56368197487623</v>
+      </c>
+      <c r="BT78" t="n">
+        <v>160.0980752079314</v>
+      </c>
+      <c r="BU78" t="n">
+        <v>318.1991703368104</v>
+      </c>
+      <c r="BV78" t="n">
+        <v>10</v>
+      </c>
+      <c r="BW78" t="n">
+        <v>9.756368197487623</v>
+      </c>
+      <c r="BX78" t="n">
+        <v>12.25228245249577</v>
+      </c>
+      <c r="BY78" t="n">
+        <v>15.38671176169766</v>
+      </c>
+      <c r="BZ78" t="n">
+        <v>19.32300367343714</v>
+      </c>
+      <c r="CA78" t="n">
+        <v>24.26629397797136</v>
+      </c>
+      <c r="CB78" t="n">
+        <v>30.47419714745545</v>
+      </c>
+      <c r="CC78" t="n">
+        <v>38.27023164826993</v>
+      </c>
+      <c r="CD78" t="n">
+        <v>48.06067977198653</v>
+      </c>
+      <c r="CE78" t="n">
+        <v>60.35576061766155</v>
+      </c>
+      <c r="CF78" t="n">
+        <v>75.79621963357623</v>
+      </c>
+      <c r="CG78" t="n">
+        <v>95.18672040494808</v>
+      </c>
+      <c r="CH78" t="n">
+        <v>119.5377788661657</v>
+      </c>
+      <c r="CI78" t="n">
+        <v>150.1184252957361</v>
+      </c>
+      <c r="CJ78" t="n">
+        <v>188.522338519459</v>
+      </c>
+      <c r="CK78" t="n">
+        <v>236.7508988375657</v>
+      </c>
+      <c r="CL78" t="n">
+        <v>297.3174878934029</v>
+      </c>
+      <c r="CM78" t="n">
+        <v>3.618550837254219</v>
+      </c>
+      <c r="CN78" t="n">
+        <v>1.354806726575077</v>
+      </c>
+      <c r="CO78" t="n">
+        <v>23.24684674535057</v>
+      </c>
+      <c r="CP78" t="n">
+        <v>10.0494509510082</v>
+      </c>
+      <c r="CQ78" t="n">
+        <v>11.04121837838873</v>
+      </c>
+      <c r="CR78" t="n">
+        <v>7.122154987379254</v>
+      </c>
+      <c r="CS78" t="n">
+        <v>13.45229875559627</v>
+      </c>
+      <c r="CT78" t="n">
+        <v>10.47962364458492</v>
+      </c>
+      <c r="CU78" t="n">
+        <v>13.45229875559627</v>
+      </c>
+      <c r="CV78" t="n">
+        <v>10.15618243113857</v>
+      </c>
+      <c r="CW78" t="n">
+        <v>7.313123735548047</v>
+      </c>
+      <c r="CX78" t="n">
+        <v>8.811290857541522</v>
+      </c>
+      <c r="CY78" t="n">
+        <v>3.027529778605228</v>
+      </c>
+      <c r="CZ78" t="n">
+        <v>5.227103299410686</v>
+      </c>
+      <c r="DA78" t="n">
+        <v>4.114935774473764</v>
+      </c>
+      <c r="DB78" t="n">
+        <v>5.764296039230672</v>
+      </c>
+      <c r="DC78" t="n">
+        <v>2.321504791327399</v>
+      </c>
+      <c r="DD78" t="n">
+        <v>2.840157031860556</v>
+      </c>
+      <c r="DE78" t="n">
+        <v>2.416359188730013</v>
+      </c>
+      <c r="DF78" t="n">
+        <v>134.606731382631</v>
+      </c>
+      <c r="DG78" t="n">
+        <v>260.3218228241984</v>
+      </c>
+      <c r="DH78" t="n">
+        <v>1.189376441753415</v>
+      </c>
+      <c r="DI78" t="n">
+        <v>1.22232998710868</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="n">
+        <v>17.80097854940567</v>
+      </c>
+      <c r="C79" t="n">
+        <v>3.497292956890373</v>
+      </c>
+      <c r="D79" t="n">
+        <v>3.912173667377125</v>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>GP</t>
+        </is>
+      </c>
+      <c r="F79" t="n">
+        <v>1.183229129285305</v>
+      </c>
+      <c r="G79" t="n">
+        <v>116.7787148046559</v>
+      </c>
+      <c r="H79" t="n">
+        <v>1800.02574005483</v>
+      </c>
+      <c r="I79" t="n">
+        <v>50</v>
+      </c>
+      <c r="J79" t="n">
+        <v>0</v>
+      </c>
+      <c r="K79" t="n">
+        <v>0</v>
+      </c>
+      <c r="L79" t="n">
+        <v>0.1545285448063071</v>
+      </c>
+      <c r="M79" t="n">
+        <v>1.157431457454817</v>
+      </c>
+      <c r="N79" t="n">
+        <v>3.666395862911215</v>
+      </c>
+      <c r="O79" t="n">
+        <v>8.557671227210971</v>
+      </c>
+      <c r="P79" t="n">
+        <v>15.73440907244002</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>22.78058147812754</v>
+      </c>
+      <c r="R79" t="n">
+        <v>24.48098761644133</v>
+      </c>
+      <c r="S79" t="n">
+        <v>25.09933350232045</v>
+      </c>
+      <c r="T79" t="n">
+        <v>26.31558833582012</v>
+      </c>
+      <c r="U79" t="n">
+        <v>27.97921672272955</v>
+      </c>
+      <c r="V79" t="n">
+        <v>29.296131346722</v>
+      </c>
+      <c r="W79" t="n">
+        <v>29.31036153617676</v>
+      </c>
+      <c r="X79" t="n">
+        <v>29.31041557110903</v>
+      </c>
+      <c r="Y79" t="n">
+        <v>29.31050978442375</v>
+      </c>
+      <c r="Z79" t="n">
+        <v>29.31077776617182</v>
+      </c>
+      <c r="AA79" t="n">
+        <v>29.31121347391354</v>
+      </c>
+      <c r="AB79" t="n">
+        <v>29.31200399819344</v>
+      </c>
+      <c r="AC79" t="n">
+        <v>29.31939611377172</v>
+      </c>
+      <c r="AD79" t="n">
+        <v>29.34120062057315</v>
+      </c>
+      <c r="AE79" t="n">
+        <v>29.38397377586657</v>
+      </c>
+      <c r="AF79" t="n">
+        <v>29.46238236844035</v>
+      </c>
+      <c r="AG79" t="n">
+        <v>29.60552208246947</v>
+      </c>
+      <c r="AH79" t="n">
+        <v>29.86830161623837</v>
+      </c>
+      <c r="AI79" t="n">
+        <v>30.34219874286496</v>
+      </c>
+      <c r="AJ79" t="n">
+        <v>31.18905194176062</v>
+      </c>
+      <c r="AK79" t="n">
+        <v>32.63278517997396</v>
+      </c>
+      <c r="AL79" t="n">
+        <v>34.92295475400007</v>
+      </c>
+      <c r="AM79" t="n">
+        <v>38.75418147905367</v>
+      </c>
+      <c r="AN79" t="n">
+        <v>44.3472251602004</v>
+      </c>
+      <c r="AO79" t="n">
+        <v>52.09873413877237</v>
+      </c>
+      <c r="AP79" t="n">
+        <v>61.48218531501338</v>
+      </c>
+      <c r="AQ79" t="n">
+        <v>70.90297512040667</v>
+      </c>
+      <c r="AR79" t="n">
+        <v>74.76454948101726</v>
+      </c>
+      <c r="AS79" t="n">
+        <v>77.6076091813059</v>
+      </c>
+      <c r="AT79" t="n">
+        <v>81.2120124399549</v>
+      </c>
+      <c r="AU79" t="n">
+        <v>85.38670308942967</v>
+      </c>
+      <c r="AV79" t="n">
+        <v>89.39780022506331</v>
+      </c>
+      <c r="AW79" t="n">
+        <v>90.53131433213895</v>
+      </c>
+      <c r="AX79" t="n">
+        <v>90.53131433213895</v>
+      </c>
+      <c r="AY79" t="n">
+        <v>90.53131433213895</v>
+      </c>
+      <c r="AZ79" t="n">
+        <v>90.53131433213895</v>
+      </c>
+      <c r="BA79" t="n">
+        <v>90.53131433213895</v>
+      </c>
+      <c r="BB79" t="n">
+        <v>99.7547721644375</v>
+      </c>
+      <c r="BC79" t="n">
+        <v>100</v>
+      </c>
+      <c r="BD79" t="n">
+        <v>100</v>
+      </c>
+      <c r="BE79" t="n">
+        <v>100</v>
+      </c>
+      <c r="BF79" t="n">
+        <v>100</v>
+      </c>
+      <c r="BG79" t="n">
+        <v>100</v>
+      </c>
+      <c r="BH79" t="n">
+        <v>1.758925102589884</v>
+      </c>
+      <c r="BI79" t="n">
+        <v>1.813854070202462</v>
+      </c>
+      <c r="BJ79" t="n">
+        <v>2.034187875341866</v>
+      </c>
+      <c r="BK79" t="n">
+        <v>2.613607081767222</v>
+      </c>
+      <c r="BL79" t="n">
+        <v>13.87826871179442</v>
+      </c>
+      <c r="BM79" t="n">
+        <v>23.67147585714373</v>
+      </c>
+      <c r="BN79" t="n">
+        <v>27.83488677735104</v>
+      </c>
+      <c r="BO79" t="n">
+        <v>31.31058802121368</v>
+      </c>
+      <c r="BP79" t="n">
+        <v>35.0152568955871</v>
+      </c>
+      <c r="BQ79" t="n">
+        <v>40.00152507497531</v>
+      </c>
+      <c r="BR79" t="n">
+        <v>47.54637628057586</v>
+      </c>
+      <c r="BS79" t="n">
+        <v>61.85011113578905</v>
+      </c>
+      <c r="BT79" t="n">
+        <v>136.3726823142715</v>
+      </c>
+      <c r="BU79" t="n">
+        <v>250.15601566847</v>
+      </c>
+      <c r="BV79" t="n">
+        <v>10</v>
+      </c>
+      <c r="BW79" t="n">
+        <v>6.185011113578905</v>
+      </c>
+      <c r="BX79" t="n">
+        <v>7.421206781514214</v>
+      </c>
+      <c r="BY79" t="n">
+        <v>8.904480377259059</v>
+      </c>
+      <c r="BZ79" t="n">
+        <v>10.68421526624184</v>
+      </c>
+      <c r="CA79" t="n">
+        <v>12.8196650471516</v>
+      </c>
+      <c r="CB79" t="n">
+        <v>15.3819263114649</v>
+      </c>
+      <c r="CC79" t="n">
+        <v>18.45630569762095</v>
+      </c>
+      <c r="CD79" t="n">
+        <v>22.14516004735658</v>
+      </c>
+      <c r="CE79" t="n">
+        <v>26.57130422293843</v>
+      </c>
+      <c r="CF79" t="n">
+        <v>31.882100043446</v>
+      </c>
+      <c r="CG79" t="n">
+        <v>38.25436247509462</v>
+      </c>
+      <c r="CH79" t="n">
+        <v>45.90024641983263</v>
+      </c>
+      <c r="CI79" t="n">
+        <v>55.07431009399265</v>
+      </c>
+      <c r="CJ79" t="n">
+        <v>66.08199016157529</v>
+      </c>
+      <c r="CK79" t="n">
+        <v>79.28977078899177</v>
+      </c>
+      <c r="CL79" t="n">
+        <v>95.13738518466231</v>
+      </c>
+      <c r="CM79" t="n">
+        <v>2.546276626497161</v>
+      </c>
+      <c r="CN79" t="n">
+        <v>3.434264390408202</v>
+      </c>
+      <c r="CO79" t="n">
+        <v>8.958040425319695</v>
+      </c>
+      <c r="CP79" t="n">
+        <v>18.25731718332639</v>
+      </c>
+      <c r="CQ79" t="n">
+        <v>14.61329691057033</v>
+      </c>
+      <c r="CR79" t="n">
+        <v>13.4741004596365</v>
+      </c>
+      <c r="CS79" t="n">
+        <v>15.89653525716831</v>
+      </c>
+      <c r="CT79" t="n">
+        <v>10.60219977493669</v>
+      </c>
+      <c r="CU79" t="n">
+        <v>7.859077633228189</v>
+      </c>
+      <c r="CV79" t="n">
+        <v>4.000791140098585</v>
+      </c>
+      <c r="CW79" t="n">
+        <v>2.62049505055181</v>
+      </c>
+      <c r="CX79" t="n">
+        <v>4.756818339062804</v>
+      </c>
+      <c r="CY79" t="n">
+        <v>4.470529759358286</v>
+      </c>
+      <c r="CZ79" t="n">
+        <v>5.461580938806122</v>
+      </c>
+      <c r="DA79" t="n">
+        <v>4.939184231921459</v>
+      </c>
+      <c r="DB79" t="n">
+        <v>5.642829046194578</v>
+      </c>
+      <c r="DC79" t="n">
+        <v>1.793077552639772</v>
+      </c>
+      <c r="DD79" t="n">
+        <v>11.99796373627507</v>
+      </c>
+      <c r="DE79" t="n">
+        <v>1.422576408256091</v>
+      </c>
+      <c r="DF79" t="n">
+        <v>50.47305594931487</v>
+      </c>
+      <c r="DG79" t="n">
+        <v>85.54380465311219</v>
+      </c>
+      <c r="DH79" t="n">
+        <v>2.701890736539059</v>
+      </c>
+      <c r="DI79" t="n">
+        <v>2.924303129640716</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="n">
+        <v>2.707830295999423</v>
+      </c>
+      <c r="C80" t="n">
+        <v>1.06164486669206</v>
+      </c>
+      <c r="D80" t="n">
+        <v>1.505257382435246</v>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>GP</t>
+        </is>
+      </c>
+      <c r="F80" t="n">
+        <v>1.343165683617697</v>
+      </c>
+      <c r="G80" t="n">
+        <v>178.1797581165964</v>
+      </c>
+      <c r="H80" t="n">
+        <v>1800.345829672319</v>
+      </c>
+      <c r="I80" t="n">
+        <v>200</v>
+      </c>
+      <c r="J80" t="n">
+        <v>0</v>
+      </c>
+      <c r="K80" t="n">
+        <v>0</v>
+      </c>
+      <c r="L80" t="n">
+        <v>0</v>
+      </c>
+      <c r="M80" t="n">
+        <v>1.867571861337036e-07</v>
+      </c>
+      <c r="N80" t="n">
+        <v>1.867571861337036e-07</v>
+      </c>
+      <c r="O80" t="n">
+        <v>1.867571861337036e-07</v>
+      </c>
+      <c r="P80" t="n">
+        <v>1.867571861337036e-07</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>1.867571861337036e-07</v>
+      </c>
+      <c r="R80" t="n">
+        <v>1.867571861337036e-07</v>
+      </c>
+      <c r="S80" t="n">
+        <v>3.920812996584567e-06</v>
+      </c>
+      <c r="T80" t="n">
+        <v>1.085478016868563e-05</v>
+      </c>
+      <c r="U80" t="n">
+        <v>2.223022999106647e-05</v>
+      </c>
+      <c r="V80" t="n">
+        <v>6.496986974761121e-05</v>
+      </c>
+      <c r="W80" t="n">
+        <v>0.0001931989801026145</v>
+      </c>
+      <c r="X80" t="n">
+        <v>0.0003566878228468197</v>
+      </c>
+      <c r="Y80" t="n">
+        <v>0.0006774049692261265</v>
+      </c>
+      <c r="Z80" t="n">
+        <v>0.001301136576606638</v>
+      </c>
+      <c r="AA80" t="n">
+        <v>0.002120134256205206</v>
+      </c>
+      <c r="AB80" t="n">
+        <v>0.003506951695833032</v>
+      </c>
+      <c r="AC80" t="n">
+        <v>0.005682587281503614</v>
+      </c>
+      <c r="AD80" t="n">
+        <v>0.009564077814646108</v>
+      </c>
+      <c r="AE80" t="n">
+        <v>0.01476721998468401</v>
+      </c>
+      <c r="AF80" t="n">
+        <v>0.02531821389143636</v>
+      </c>
+      <c r="AG80" t="n">
+        <v>0.0431842134562064</v>
+      </c>
+      <c r="AH80" t="n">
+        <v>0.07575977925298397</v>
+      </c>
+      <c r="AI80" t="n">
+        <v>0.1310966404089691</v>
+      </c>
+      <c r="AJ80" t="n">
+        <v>0.2096205995677873</v>
+      </c>
+      <c r="AK80" t="n">
+        <v>0.3430006757921161</v>
+      </c>
+      <c r="AL80" t="n">
+        <v>0.5993818554713951</v>
+      </c>
+      <c r="AM80" t="n">
+        <v>0.9740208934156079</v>
+      </c>
+      <c r="AN80" t="n">
+        <v>1.592798074605781</v>
+      </c>
+      <c r="AO80" t="n">
+        <v>2.62252385751217</v>
+      </c>
+      <c r="AP80" t="n">
+        <v>4.242750390884011</v>
+      </c>
+      <c r="AQ80" t="n">
+        <v>6.573188920850935</v>
+      </c>
+      <c r="AR80" t="n">
+        <v>9.792819339180452</v>
+      </c>
+      <c r="AS80" t="n">
+        <v>14.04119473390591</v>
+      </c>
+      <c r="AT80" t="n">
+        <v>19.55306478011755</v>
+      </c>
+      <c r="AU80" t="n">
+        <v>25.03215070405519</v>
+      </c>
+      <c r="AV80" t="n">
+        <v>27.85737652551219</v>
+      </c>
+      <c r="AW80" t="n">
+        <v>30.13240627677377</v>
+      </c>
+      <c r="AX80" t="n">
+        <v>33.51739647091657</v>
+      </c>
+      <c r="AY80" t="n">
+        <v>38.59869807112224</v>
+      </c>
+      <c r="AZ80" t="n">
+        <v>45.92226350160956</v>
+      </c>
+      <c r="BA80" t="n">
+        <v>56.9589140635354</v>
+      </c>
+      <c r="BB80" t="n">
+        <v>68.23990138804169</v>
+      </c>
+      <c r="BC80" t="n">
+        <v>77.21046189021909</v>
+      </c>
+      <c r="BD80" t="n">
+        <v>83.73004386827709</v>
+      </c>
+      <c r="BE80" t="n">
+        <v>91.68851151734039</v>
+      </c>
+      <c r="BF80" t="n">
+        <v>100</v>
+      </c>
+      <c r="BG80" t="n">
+        <v>100</v>
+      </c>
+      <c r="BH80" t="n">
+        <v>39.69031061949902</v>
+      </c>
+      <c r="BI80" t="n">
+        <v>41.96172903445041</v>
+      </c>
+      <c r="BJ80" t="n">
+        <v>49.39599208574902</v>
+      </c>
+      <c r="BK80" t="n">
+        <v>54.55266476630087</v>
+      </c>
+      <c r="BL80" t="n">
+        <v>67.29531824854274</v>
+      </c>
+      <c r="BM80" t="n">
+        <v>85.71780140305505</v>
+      </c>
+      <c r="BN80" t="n">
+        <v>97.83563358327901</v>
+      </c>
+      <c r="BO80" t="n">
+        <v>107.4746255531071</v>
+      </c>
+      <c r="BP80" t="n">
+        <v>118.4651504907845</v>
+      </c>
+      <c r="BQ80" t="n">
+        <v>123.6054162282683</v>
+      </c>
+      <c r="BR80" t="n">
+        <v>136.2622438847499</v>
+      </c>
+      <c r="BS80" t="n">
+        <v>158.3596434661359</v>
+      </c>
+      <c r="BT80" t="n">
+        <v>317.480262024888</v>
+      </c>
+      <c r="BU80" t="n">
+        <v>888.5768043931528</v>
+      </c>
+      <c r="BV80" t="n">
+        <v>10</v>
+      </c>
+      <c r="BW80" t="n">
+        <v>15.83596434661359</v>
+      </c>
+      <c r="BX80" t="n">
+        <v>20.87415802121636</v>
+      </c>
+      <c r="BY80" t="n">
+        <v>27.51524716509541</v>
+      </c>
+      <c r="BZ80" t="n">
+        <v>36.26919111117155</v>
+      </c>
+      <c r="CA80" t="n">
+        <v>47.8081921621773</v>
+      </c>
+      <c r="CB80" t="n">
+        <v>63.01831300317195</v>
+      </c>
+      <c r="CC80" t="n">
+        <v>83.06751613393132</v>
+      </c>
+      <c r="CD80" t="n">
+        <v>109.4953499677725</v>
+      </c>
+      <c r="CE80" t="n">
+        <v>144.3311684586127</v>
+      </c>
+      <c r="CF80" t="n">
+        <v>190.2499621651488</v>
+      </c>
+      <c r="CG80" t="n">
+        <v>250.7777667872173</v>
+      </c>
+      <c r="CH80" t="n">
+        <v>330.5624221895612</v>
+      </c>
+      <c r="CI80" t="n">
+        <v>435.7304730947125</v>
+      </c>
+      <c r="CJ80" t="n">
+        <v>574.3576173170285</v>
+      </c>
+      <c r="CK80" t="n">
+        <v>757.0888265562927</v>
+      </c>
+      <c r="CL80" t="n">
+        <v>997.9557579019689</v>
+      </c>
+      <c r="CM80" t="n">
+        <v>6.357415998840338</v>
+      </c>
+      <c r="CN80" t="n">
+        <v>4.590107461435686</v>
+      </c>
+      <c r="CO80" t="n">
+        <v>31.76009861195831</v>
+      </c>
+      <c r="CP80" t="n">
+        <v>29.98290518603949</v>
+      </c>
+      <c r="CQ80" t="n">
+        <v>43.0410859364646</v>
+      </c>
+      <c r="CR80" t="n">
+        <v>19.99105712510929</v>
+      </c>
+      <c r="CS80" t="n">
+        <v>16.26995613172291</v>
+      </c>
+      <c r="CT80" t="n">
+        <v>16.26995613172291</v>
+      </c>
+      <c r="CU80" t="n">
+        <v>12.27827066952976</v>
+      </c>
+      <c r="CV80" t="n">
+        <v>24.5401092912191</v>
+      </c>
+      <c r="CW80" t="n">
+        <v>17.63602449693364</v>
+      </c>
+      <c r="CX80" t="n">
+        <v>7.776852936378418</v>
+      </c>
+      <c r="CY80" t="n">
+        <v>10.86357273436978</v>
+      </c>
+      <c r="CZ80" t="n">
+        <v>6.967095592326459</v>
+      </c>
+      <c r="DA80" t="n">
+        <v>5.722968339266352</v>
+      </c>
+      <c r="DB80" t="n">
+        <v>5.861669873166022</v>
+      </c>
+      <c r="DC80" t="n">
+        <v>3.599368107420695</v>
+      </c>
+      <c r="DD80" t="n">
+        <v>1.247744425545889</v>
+      </c>
+      <c r="DE80" t="n">
+        <v>1.989617832510227</v>
+      </c>
+      <c r="DF80" t="n">
+        <v>381.7498093428148</v>
+      </c>
+      <c r="DG80" t="n">
+        <v>849.4353414624677</v>
+      </c>
+      <c r="DH80" t="n">
+        <v>0.8316448476331467</v>
+      </c>
+      <c r="DI80" t="n">
+        <v>1.046079390649435</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="n">
+        <v>1.472221811939766</v>
+      </c>
+      <c r="C81" t="n">
+        <v>1.045307240430485</v>
+      </c>
+      <c r="D81" t="n">
+        <v>1.151333573839387</v>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>GP</t>
+        </is>
+      </c>
+      <c r="F81" t="n">
+        <v>10.84365742940134</v>
+      </c>
+      <c r="G81" t="n">
+        <v>41.28070925753735</v>
+      </c>
+      <c r="H81" t="n">
+        <v>1800.023845106417</v>
+      </c>
+      <c r="I81" t="n">
+        <v>10</v>
+      </c>
+      <c r="J81" t="n">
+        <v>0</v>
+      </c>
+      <c r="K81" t="n">
+        <v>0</v>
+      </c>
+      <c r="L81" t="n">
+        <v>0</v>
+      </c>
+      <c r="M81" t="n">
+        <v>0</v>
+      </c>
+      <c r="N81" t="n">
+        <v>0</v>
+      </c>
+      <c r="O81" t="n">
+        <v>0</v>
+      </c>
+      <c r="P81" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>0</v>
+      </c>
+      <c r="R81" t="n">
+        <v>0</v>
+      </c>
+      <c r="S81" t="n">
+        <v>0</v>
+      </c>
+      <c r="T81" t="n">
+        <v>0</v>
+      </c>
+      <c r="U81" t="n">
+        <v>0</v>
+      </c>
+      <c r="V81" t="n">
+        <v>0</v>
+      </c>
+      <c r="W81" t="n">
+        <v>0</v>
+      </c>
+      <c r="X81" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y81" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z81" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA81" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB81" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC81" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD81" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE81" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF81" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG81" t="n">
+        <v>0.08204663796998878</v>
+      </c>
+      <c r="AH81" t="n">
+        <v>0.2855029702212503</v>
+      </c>
+      <c r="AI81" t="n">
+        <v>0.7092891625979328</v>
+      </c>
+      <c r="AJ81" t="n">
+        <v>1.530474440715493</v>
+      </c>
+      <c r="AK81" t="n">
+        <v>3.092680600183264</v>
+      </c>
+      <c r="AL81" t="n">
+        <v>5.872823010453224</v>
+      </c>
+      <c r="AM81" t="n">
+        <v>10.87243775579868</v>
+      </c>
+      <c r="AN81" t="n">
+        <v>19.23440321215213</v>
+      </c>
+      <c r="AO81" t="n">
+        <v>32.22782986185116</v>
+      </c>
+      <c r="AP81" t="n">
+        <v>50.81206437626737</v>
+      </c>
+      <c r="AQ81" t="n">
+        <v>72.71633997807076</v>
+      </c>
+      <c r="AR81" t="n">
+        <v>94.07989375832683</v>
+      </c>
+      <c r="AS81" t="n">
+        <v>100</v>
+      </c>
+      <c r="AT81" t="n">
+        <v>100</v>
+      </c>
+      <c r="AU81" t="n">
+        <v>100</v>
+      </c>
+      <c r="AV81" t="n">
+        <v>100</v>
+      </c>
+      <c r="AW81" t="n">
+        <v>100</v>
+      </c>
+      <c r="AX81" t="n">
+        <v>100</v>
+      </c>
+      <c r="AY81" t="n">
+        <v>100</v>
+      </c>
+      <c r="AZ81" t="n">
+        <v>100</v>
+      </c>
+      <c r="BA81" t="n">
+        <v>100</v>
+      </c>
+      <c r="BB81" t="n">
+        <v>100</v>
+      </c>
+      <c r="BC81" t="n">
+        <v>100</v>
+      </c>
+      <c r="BD81" t="n">
+        <v>100</v>
+      </c>
+      <c r="BE81" t="n">
+        <v>100</v>
+      </c>
+      <c r="BF81" t="n">
+        <v>100</v>
+      </c>
+      <c r="BG81" t="n">
+        <v>100</v>
+      </c>
+      <c r="BH81" t="n">
+        <v>22.65537951253102</v>
+      </c>
+      <c r="BI81" t="n">
+        <v>23.42353356087283</v>
+      </c>
+      <c r="BJ81" t="n">
+        <v>25.82474566282546</v>
+      </c>
+      <c r="BK81" t="n">
+        <v>27.03036520625493</v>
+      </c>
+      <c r="BL81" t="n">
+        <v>28.10476413389474</v>
+      </c>
+      <c r="BM81" t="n">
+        <v>30.01348009958962</v>
+      </c>
+      <c r="BN81" t="n">
+        <v>31.69165942871056</v>
+      </c>
+      <c r="BO81" t="n">
+        <v>33.35374387612146</v>
+      </c>
+      <c r="BP81" t="n">
+        <v>34.98524706794052</v>
+      </c>
+      <c r="BQ81" t="n">
+        <v>35.83061412878092</v>
+      </c>
+      <c r="BR81" t="n">
+        <v>36.68273836408796</v>
+      </c>
+      <c r="BS81" t="n">
+        <v>38.5901321433312</v>
+      </c>
+      <c r="BT81" t="n">
+        <v>17.04096956805329</v>
+      </c>
+      <c r="BU81" t="n">
+        <v>13.25997100446651</v>
+      </c>
+      <c r="BV81" t="n">
+        <v>10</v>
+      </c>
+      <c r="BW81" t="n">
+        <v>3.85901321433312</v>
+      </c>
+      <c r="BX81" t="n">
+        <v>4.416964332465403</v>
+      </c>
+      <c r="BY81" t="n">
+        <v>5.055586190223246</v>
+      </c>
+      <c r="BZ81" t="n">
+        <v>5.786542476450072</v>
+      </c>
+      <c r="CA81" t="n">
+        <v>6.623183261421627</v>
+      </c>
+      <c r="CB81" t="n">
+        <v>7.580788820423017</v>
+      </c>
+      <c r="CC81" t="n">
+        <v>8.676848710285475</v>
+      </c>
+      <c r="CD81" t="n">
+        <v>9.931381195892694</v>
+      </c>
+      <c r="CE81" t="n">
+        <v>11.36729886061203</v>
+      </c>
+      <c r="CF81" t="n">
+        <v>13.01082707810177</v>
+      </c>
+      <c r="CG81" t="n">
+        <v>14.89198298839766</v>
+      </c>
+      <c r="CH81" t="n">
+        <v>17.04512372622208</v>
+      </c>
+      <c r="CI81" t="n">
+        <v>19.50957391427156</v>
+      </c>
+      <c r="CJ81" t="n">
+        <v>22.33034388192075</v>
+      </c>
+      <c r="CK81" t="n">
+        <v>25.55895172677602</v>
+      </c>
+      <c r="CL81" t="n">
+        <v>29.25436423308124</v>
+      </c>
+      <c r="CM81" t="n">
+        <v>3.207122493507057</v>
+      </c>
+      <c r="CN81" t="n">
+        <v>3.810190488486981</v>
+      </c>
+      <c r="CO81" t="n">
+        <v>2.758401932629866</v>
+      </c>
+      <c r="CP81" t="n">
+        <v>12.40454223894723</v>
+      </c>
+      <c r="CQ81" t="n">
+        <v>7.471035165974101</v>
+      </c>
+      <c r="CR81" t="n">
+        <v>6.588894659012041</v>
+      </c>
+      <c r="CS81" t="n">
+        <v>5.356843765081095</v>
+      </c>
+      <c r="CT81" t="n">
+        <v>6.914479657965288</v>
+      </c>
+      <c r="CU81" t="n">
+        <v>3.052455065449088</v>
+      </c>
+      <c r="CV81" t="n">
+        <v>3.514751521769995</v>
+      </c>
+      <c r="CW81" t="n">
+        <v>7.560093161270075</v>
+      </c>
+      <c r="CX81" t="n">
+        <v>6.227525392936414</v>
+      </c>
+      <c r="CY81" t="n">
+        <v>1.614829191535932</v>
+      </c>
+      <c r="CZ81" t="n">
+        <v>2.933224841573022</v>
+      </c>
+      <c r="DA81" t="n">
+        <v>1.760222136835168</v>
+      </c>
+      <c r="DB81" t="n">
+        <v>5.129958025289334</v>
+      </c>
+      <c r="DC81" t="n">
+        <v>2.325177260727237</v>
+      </c>
+      <c r="DD81" t="n">
+        <v>4.275490974046875</v>
+      </c>
+      <c r="DE81" t="n">
+        <v>1.043274727172658</v>
+      </c>
+      <c r="DF81" t="n">
+        <v>18.28804322989879</v>
+      </c>
+      <c r="DG81" t="n">
+        <v>27.03825865915286</v>
+      </c>
+      <c r="DH81" t="n">
+        <v>0.9318093441617262</v>
+      </c>
+      <c r="DI81" t="n">
+        <v>0.4904151251610949</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="n">
+        <v>1.598004382272084</v>
+      </c>
+      <c r="C82" t="n">
+        <v>1.038052070548489</v>
+      </c>
+      <c r="D82" t="n">
+        <v>1.222765023342382</v>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>GP</t>
+        </is>
+      </c>
+      <c r="F82" t="n">
+        <v>1.141495579728758</v>
+      </c>
+      <c r="G82" t="n">
+        <v>74.26120638193456</v>
+      </c>
+      <c r="H82" t="n">
+        <v>1800.028326451285</v>
+      </c>
+      <c r="I82" t="n">
+        <v>20</v>
+      </c>
+      <c r="J82" t="n">
+        <v>0</v>
+      </c>
+      <c r="K82" t="n">
+        <v>0</v>
+      </c>
+      <c r="L82" t="n">
+        <v>0.0001322374067063068</v>
+      </c>
+      <c r="M82" t="n">
+        <v>0.0004937336919696093</v>
+      </c>
+      <c r="N82" t="n">
+        <v>0.001179604824636496</v>
+      </c>
+      <c r="O82" t="n">
+        <v>0.002374218421099237</v>
+      </c>
+      <c r="P82" t="n">
+        <v>0.004540669210411434</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>0.008301627494099725</v>
+      </c>
+      <c r="R82" t="n">
+        <v>0.01468827617459685</v>
+      </c>
+      <c r="S82" t="n">
+        <v>0.0277852848172953</v>
+      </c>
+      <c r="T82" t="n">
+        <v>0.06954565068002218</v>
+      </c>
+      <c r="U82" t="n">
+        <v>0.1539430911144678</v>
+      </c>
+      <c r="V82" t="n">
+        <v>0.3165068874791027</v>
+      </c>
+      <c r="W82" t="n">
+        <v>0.6131589768681462</v>
+      </c>
+      <c r="X82" t="n">
+        <v>1.151165767189012</v>
+      </c>
+      <c r="Y82" t="n">
+        <v>2.102095675506188</v>
+      </c>
+      <c r="Z82" t="n">
+        <v>3.765601347721312</v>
+      </c>
+      <c r="AA82" t="n">
+        <v>6.569023001576337</v>
+      </c>
+      <c r="AB82" t="n">
+        <v>11.15613236193327</v>
+      </c>
+      <c r="AC82" t="n">
+        <v>18.22360531596486</v>
+      </c>
+      <c r="AD82" t="n">
+        <v>28.42326244880152</v>
+      </c>
+      <c r="AE82" t="n">
+        <v>42.07666007963509</v>
+      </c>
+      <c r="AF82" t="n">
+        <v>58.02728900078426</v>
+      </c>
+      <c r="AG82" t="n">
+        <v>70.48062309886227</v>
+      </c>
+      <c r="AH82" t="n">
+        <v>81.13327156672089</v>
+      </c>
+      <c r="AI82" t="n">
+        <v>86.51656910869777</v>
+      </c>
+      <c r="AJ82" t="n">
+        <v>86.85125495010882</v>
+      </c>
+      <c r="AK82" t="n">
+        <v>86.85125495010882</v>
+      </c>
+      <c r="AL82" t="n">
+        <v>86.85125495010882</v>
+      </c>
+      <c r="AM82" t="n">
+        <v>86.85125495010882</v>
+      </c>
+      <c r="AN82" t="n">
+        <v>86.85125495010882</v>
+      </c>
+      <c r="AO82" t="n">
+        <v>86.85125495010882</v>
+      </c>
+      <c r="AP82" t="n">
+        <v>86.85125495010882</v>
+      </c>
+      <c r="AQ82" t="n">
+        <v>86.89911746999182</v>
+      </c>
+      <c r="AR82" t="n">
+        <v>87.13017043275892</v>
+      </c>
+      <c r="AS82" t="n">
+        <v>87.68913498725101</v>
+      </c>
+      <c r="AT82" t="n">
+        <v>89.15019096416358</v>
+      </c>
+      <c r="AU82" t="n">
+        <v>91.20796127864111</v>
+      </c>
+      <c r="AV82" t="n">
+        <v>94.26121905003797</v>
+      </c>
+      <c r="AW82" t="n">
+        <v>97.92276911093765</v>
+      </c>
+      <c r="AX82" t="n">
+        <v>100</v>
+      </c>
+      <c r="AY82" t="n">
+        <v>100</v>
+      </c>
+      <c r="AZ82" t="n">
+        <v>100</v>
+      </c>
+      <c r="BA82" t="n">
+        <v>100</v>
+      </c>
+      <c r="BB82" t="n">
+        <v>100</v>
+      </c>
+      <c r="BC82" t="n">
+        <v>100</v>
+      </c>
+      <c r="BD82" t="n">
+        <v>100</v>
+      </c>
+      <c r="BE82" t="n">
+        <v>100</v>
+      </c>
+      <c r="BF82" t="n">
+        <v>100</v>
+      </c>
+      <c r="BG82" t="n">
+        <v>100</v>
+      </c>
+      <c r="BH82" t="n">
+        <v>6.844837962444146</v>
+      </c>
+      <c r="BI82" t="n">
+        <v>7.11245788622662</v>
+      </c>
+      <c r="BJ82" t="n">
+        <v>7.973998867926047</v>
+      </c>
+      <c r="BK82" t="n">
+        <v>8.416342205069157</v>
+      </c>
+      <c r="BL82" t="n">
+        <v>8.815799900161021</v>
+      </c>
+      <c r="BM82" t="n">
+        <v>9.540578308282486</v>
+      </c>
+      <c r="BN82" t="n">
+        <v>10.2318899761223</v>
+      </c>
+      <c r="BO82" t="n">
+        <v>10.93808105992807</v>
+      </c>
+      <c r="BP82" t="n">
+        <v>11.96476005299468</v>
+      </c>
+      <c r="BQ82" t="n">
+        <v>12.58373025761813</v>
+      </c>
+      <c r="BR82" t="n">
+        <v>13.2402499844312</v>
+      </c>
+      <c r="BS82" t="n">
+        <v>51.49802190374392</v>
+      </c>
+      <c r="BT82" t="n">
+        <v>55.14726773300278</v>
+      </c>
+      <c r="BU82" t="n">
+        <v>77.19463594961753</v>
+      </c>
+      <c r="BV82" t="n">
+        <v>10</v>
+      </c>
+      <c r="BW82" t="n">
+        <v>5.149802190374392</v>
+      </c>
+      <c r="BX82" t="n">
+        <v>6.066938637288851</v>
+      </c>
+      <c r="BY82" t="n">
+        <v>7.147409369902879</v>
+      </c>
+      <c r="BZ82" t="n">
+        <v>8.420302850434657</v>
+      </c>
+      <c r="CA82" t="n">
+        <v>9.919887951514024</v>
+      </c>
+      <c r="CB82" t="n">
+        <v>11.68653654369611</v>
+      </c>
+      <c r="CC82" t="n">
+        <v>13.76781038804977</v>
+      </c>
+      <c r="CD82" t="n">
+        <v>16.21974159517249</v>
+      </c>
+      <c r="CE82" t="n">
+        <v>19.10834112318381</v>
+      </c>
+      <c r="CF82" t="n">
+        <v>22.51137592652103</v>
+      </c>
+      <c r="CG82" t="n">
+        <v>26.52046259998492</v>
+      </c>
+      <c r="CH82" t="n">
+        <v>31.2435338831772</v>
+      </c>
+      <c r="CI82" t="n">
+        <v>36.80774442862835</v>
+      </c>
+      <c r="CJ82" t="n">
+        <v>43.36289406278419</v>
+      </c>
+      <c r="CK82" t="n">
+        <v>51.08546070097553</v>
+      </c>
+      <c r="CL82" t="n">
+        <v>60.18335149061667</v>
+      </c>
+      <c r="CM82" t="n">
+        <v>1.349591518411316</v>
+      </c>
+      <c r="CN82" t="n">
+        <v>1.555126376767092</v>
+      </c>
+      <c r="CO82" t="n">
+        <v>5.127283731968589</v>
+      </c>
+      <c r="CP82" t="n">
+        <v>10.84980903583642</v>
+      </c>
+      <c r="CQ82" t="n">
+        <v>10.47958163025608</v>
+      </c>
+      <c r="CR82" t="n">
+        <v>13.14874504989118</v>
+      </c>
+      <c r="CS82" t="n">
+        <v>5.600575090846192</v>
+      </c>
+      <c r="CT82" t="n">
+        <v>11.2238394626014</v>
+      </c>
+      <c r="CU82" t="n">
+        <v>8.454298639758406</v>
+      </c>
+      <c r="CV82" t="n">
+        <v>4.371868040593355</v>
+      </c>
+      <c r="CW82" t="n">
+        <v>4.142364259834821</v>
+      </c>
+      <c r="CX82" t="n">
+        <v>5.310219119646831</v>
+      </c>
+      <c r="CY82" t="n">
+        <v>3.395443485300348</v>
+      </c>
+      <c r="CZ82" t="n">
+        <v>2.034948802964408</v>
+      </c>
+      <c r="DA82" t="n">
+        <v>2.077230889062349</v>
+      </c>
+      <c r="DB82" t="n">
+        <v>2.495415289743235</v>
+      </c>
+      <c r="DC82" t="n">
+        <v>0.8553638967287185</v>
+      </c>
+      <c r="DD82" t="n">
+        <v>5.154935887027776</v>
+      </c>
+      <c r="DE82" t="n">
+        <v>2.514244432565249</v>
+      </c>
+      <c r="DF82" t="n">
+        <v>34.02973749221493</v>
+      </c>
+      <c r="DG82" t="n">
+        <v>54.69583363453685</v>
+      </c>
+      <c r="DH82" t="n">
+        <v>1.620561067966479</v>
+      </c>
+      <c r="DI82" t="n">
+        <v>1.41134398765017</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="n">
+        <v>5.961971998455044</v>
+      </c>
+      <c r="C83" t="n">
+        <v>0.3157255658372505</v>
+      </c>
+      <c r="D83" t="n">
+        <v>2.321870351764252</v>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>GP</t>
+        </is>
+      </c>
+      <c r="F83" t="n">
+        <v>3.9196183118848</v>
+      </c>
+      <c r="G83" t="n">
+        <v>169.9861387120566</v>
+      </c>
+      <c r="H83" t="n">
+        <v>1800.506632871045</v>
+      </c>
+      <c r="I83" t="n">
+        <v>200</v>
+      </c>
+      <c r="J83" t="n">
+        <v>0</v>
+      </c>
+      <c r="K83" t="n">
+        <v>0</v>
+      </c>
+      <c r="L83" t="n">
+        <v>0</v>
+      </c>
+      <c r="M83" t="n">
+        <v>0</v>
+      </c>
+      <c r="N83" t="n">
+        <v>0</v>
+      </c>
+      <c r="O83" t="n">
+        <v>0</v>
+      </c>
+      <c r="P83" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>0</v>
+      </c>
+      <c r="R83" t="n">
+        <v>0</v>
+      </c>
+      <c r="S83" t="n">
+        <v>0</v>
+      </c>
+      <c r="T83" t="n">
+        <v>0</v>
+      </c>
+      <c r="U83" t="n">
+        <v>0</v>
+      </c>
+      <c r="V83" t="n">
+        <v>0</v>
+      </c>
+      <c r="W83" t="n">
+        <v>4.640674465200153e-06</v>
+      </c>
+      <c r="X83" t="n">
+        <v>0.00109587143878648</v>
+      </c>
+      <c r="Y83" t="n">
+        <v>0.005210279773007295</v>
+      </c>
+      <c r="Z83" t="n">
+        <v>0.012800248105699</v>
+      </c>
+      <c r="AA83" t="n">
+        <v>0.02522347809210383</v>
+      </c>
+      <c r="AB83" t="n">
+        <v>0.05027049570817053</v>
+      </c>
+      <c r="AC83" t="n">
+        <v>0.09417215605720045</v>
+      </c>
+      <c r="AD83" t="n">
+        <v>0.1740993936700443</v>
+      </c>
+      <c r="AE83" t="n">
+        <v>0.3085378370993213</v>
+      </c>
+      <c r="AF83" t="n">
+        <v>0.5404727881783135</v>
+      </c>
+      <c r="AG83" t="n">
+        <v>0.9414218806853645</v>
+      </c>
+      <c r="AH83" t="n">
+        <v>1.645834656093769</v>
+      </c>
+      <c r="AI83" t="n">
+        <v>2.823262646500198</v>
+      </c>
+      <c r="AJ83" t="n">
+        <v>4.73798823344356</v>
+      </c>
+      <c r="AK83" t="n">
+        <v>7.714215836266092</v>
+      </c>
+      <c r="AL83" t="n">
+        <v>12.10087461994187</v>
+      </c>
+      <c r="AM83" t="n">
+        <v>18.16165988557055</v>
+      </c>
+      <c r="AN83" t="n">
+        <v>25.85933401162887</v>
+      </c>
+      <c r="AO83" t="n">
+        <v>33.8308281486225</v>
+      </c>
+      <c r="AP83" t="n">
+        <v>37.19605949497941</v>
+      </c>
+      <c r="AQ83" t="n">
+        <v>37.22493637297579</v>
+      </c>
+      <c r="AR83" t="n">
+        <v>37.28375388592205</v>
+      </c>
+      <c r="AS83" t="n">
+        <v>37.4019270673227</v>
+      </c>
+      <c r="AT83" t="n">
+        <v>37.65030104413609</v>
+      </c>
+      <c r="AU83" t="n">
+        <v>37.89602313894338</v>
+      </c>
+      <c r="AV83" t="n">
+        <v>38.3954305503047</v>
+      </c>
+      <c r="AW83" t="n">
+        <v>39.25745681585482</v>
+      </c>
+      <c r="AX83" t="n">
+        <v>40.54031360705667</v>
+      </c>
+      <c r="AY83" t="n">
+        <v>42.86548446823554</v>
+      </c>
+      <c r="AZ83" t="n">
+        <v>46.26736322181331</v>
+      </c>
+      <c r="BA83" t="n">
+        <v>51.86140669935131</v>
+      </c>
+      <c r="BB83" t="n">
+        <v>59.29641409364225</v>
+      </c>
+      <c r="BC83" t="n">
+        <v>71.05220434631997</v>
+      </c>
+      <c r="BD83" t="n">
+        <v>81.47193567615646</v>
+      </c>
+      <c r="BE83" t="n">
+        <v>93.34615645239491</v>
+      </c>
+      <c r="BF83" t="n">
+        <v>100</v>
+      </c>
+      <c r="BG83" t="n">
+        <v>100</v>
+      </c>
+      <c r="BH83" t="n">
+        <v>19.71745146916601</v>
+      </c>
+      <c r="BI83" t="n">
+        <v>20.60360122729571</v>
+      </c>
+      <c r="BJ83" t="n">
+        <v>23.63961986427644</v>
+      </c>
+      <c r="BK83" t="n">
+        <v>25.34717937192385</v>
+      </c>
+      <c r="BL83" t="n">
+        <v>27.05207742078014</v>
+      </c>
+      <c r="BM83" t="n">
+        <v>72.96164257530288</v>
+      </c>
+      <c r="BN83" t="n">
+        <v>100.9487235136045</v>
+      </c>
+      <c r="BO83" t="n">
+        <v>117.5548935400641</v>
+      </c>
+      <c r="BP83" t="n">
+        <v>128.1344535377999</v>
+      </c>
+      <c r="BQ83" t="n">
+        <v>136.6487206986332</v>
+      </c>
+      <c r="BR83" t="n">
+        <v>141.3591987665792</v>
+      </c>
+      <c r="BS83" t="n">
+        <v>152.3692148153872</v>
+      </c>
+      <c r="BT83" t="n">
+        <v>288.9528735423455</v>
+      </c>
+      <c r="BU83" t="n">
+        <v>771.5434765801774</v>
+      </c>
+      <c r="BV83" t="n">
+        <v>10</v>
+      </c>
+      <c r="BW83" t="n">
+        <v>15.23692148153872</v>
+      </c>
+      <c r="BX83" t="n">
+        <v>20.007229436474</v>
+      </c>
+      <c r="BY83" t="n">
+        <v>26.27100429760093</v>
+      </c>
+      <c r="BZ83" t="n">
+        <v>34.49581407540447</v>
+      </c>
+      <c r="CA83" t="n">
+        <v>45.29561090413055</v>
+      </c>
+      <c r="CB83" t="n">
+        <v>59.47656033551178</v>
+      </c>
+      <c r="CC83" t="n">
+        <v>78.09721866498082</v>
+      </c>
+      <c r="CD83" t="n">
+        <v>102.5475503088934</v>
+      </c>
+      <c r="CE83" t="n">
+        <v>134.652683592565</v>
+      </c>
+      <c r="CF83" t="n">
+        <v>176.8091499413125</v>
+      </c>
+      <c r="CG83" t="n">
+        <v>232.1637762345768</v>
+      </c>
+      <c r="CH83" t="n">
+        <v>304.8485839866854</v>
+      </c>
+      <c r="CI83" t="n">
+        <v>400.2892297237127</v>
+      </c>
+      <c r="CJ83" t="n">
+        <v>525.6100105086975</v>
+      </c>
+      <c r="CK83" t="n">
+        <v>690.1656668045681</v>
+      </c>
+      <c r="CL83" t="n">
+        <v>906.2396798241956</v>
+      </c>
+      <c r="CM83" t="n">
+        <v>8.385344139807849</v>
+      </c>
+      <c r="CN83" t="n">
+        <v>3.491959458116767</v>
+      </c>
+      <c r="CO83" t="n">
+        <v>18.52806432384354</v>
+      </c>
+      <c r="CP83" t="n">
+        <v>29.59197607406394</v>
+      </c>
+      <c r="CQ83" t="n">
+        <v>18.52806432384354</v>
+      </c>
+      <c r="CR83" t="n">
+        <v>18.52806432384354</v>
+      </c>
+      <c r="CS83" t="n">
+        <v>19.93039528871571</v>
+      </c>
+      <c r="CT83" t="n">
+        <v>9.605448433613901</v>
+      </c>
+      <c r="CU83" t="n">
+        <v>19.70570290551256</v>
+      </c>
+      <c r="CV83" t="n">
+        <v>12.58926948512682</v>
+      </c>
+      <c r="CW83" t="n">
+        <v>7.670588513761956</v>
+      </c>
+      <c r="CX83" t="n">
+        <v>20.31040444080371</v>
+      </c>
+      <c r="CY83" t="n">
+        <v>10.10277427155113</v>
+      </c>
+      <c r="CZ83" t="n">
+        <v>6.166011689566261</v>
+      </c>
+      <c r="DA83" t="n">
+        <v>3.842429795216603</v>
+      </c>
+      <c r="DB83" t="n">
+        <v>2.509296674333314</v>
+      </c>
+      <c r="DC83" t="n">
+        <v>5.162170792035127</v>
+      </c>
+      <c r="DD83" t="n">
+        <v>2.918751875439838</v>
+      </c>
+      <c r="DE83" t="n">
+        <v>4.578858979452718</v>
+      </c>
+      <c r="DF83" t="n">
+        <v>351.3473335957113</v>
+      </c>
+      <c r="DG83" t="n">
+        <v>773.1060298564207</v>
+      </c>
+      <c r="DH83" t="n">
+        <v>0.8224137368147443</v>
+      </c>
+      <c r="DI83" t="n">
+        <v>0.9979788629037941</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="n">
+        <v>2.612027463864127</v>
+      </c>
+      <c r="C84" t="n">
+        <v>0.6662313265410107</v>
+      </c>
+      <c r="D84" t="n">
+        <v>1.606499040095899</v>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>GP</t>
+        </is>
+      </c>
+      <c r="F84" t="n">
+        <v>2.632165146354039</v>
+      </c>
+      <c r="G84" t="n">
+        <v>105.2707592445794</v>
+      </c>
+      <c r="H84" t="n">
+        <v>1800.774379799912</v>
+      </c>
+      <c r="I84" t="n">
+        <v>60</v>
+      </c>
+      <c r="J84" t="n">
+        <v>0</v>
+      </c>
+      <c r="K84" t="n">
+        <v>0</v>
+      </c>
+      <c r="L84" t="n">
+        <v>0</v>
+      </c>
+      <c r="M84" t="n">
+        <v>0</v>
+      </c>
+      <c r="N84" t="n">
+        <v>0</v>
+      </c>
+      <c r="O84" t="n">
+        <v>0</v>
+      </c>
+      <c r="P84" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>0</v>
+      </c>
+      <c r="R84" t="n">
+        <v>0</v>
+      </c>
+      <c r="S84" t="n">
+        <v>1.405156172548497e-06</v>
+      </c>
+      <c r="T84" t="n">
+        <v>1.822491750322022e-05</v>
+      </c>
+      <c r="U84" t="n">
+        <v>5.080232837389245e-05</v>
+      </c>
+      <c r="V84" t="n">
+        <v>9.276005493986124e-05</v>
+      </c>
+      <c r="W84" t="n">
+        <v>0.0001660294661312383</v>
+      </c>
+      <c r="X84" t="n">
+        <v>0.0003687004133931646</v>
+      </c>
+      <c r="Y84" t="n">
+        <v>0.0007597881421445156</v>
+      </c>
+      <c r="Z84" t="n">
+        <v>0.001300821912624784</v>
+      </c>
+      <c r="AA84" t="n">
+        <v>0.002184808042875</v>
+      </c>
+      <c r="AB84" t="n">
+        <v>0.004334355100107009</v>
+      </c>
+      <c r="AC84" t="n">
+        <v>0.007293728471647143</v>
+      </c>
+      <c r="AD84" t="n">
+        <v>0.01242902104038067</v>
+      </c>
+      <c r="AE84" t="n">
+        <v>0.02141953727056973</v>
+      </c>
+      <c r="AF84" t="n">
+        <v>0.03650991446150574</v>
+      </c>
+      <c r="AG84" t="n">
+        <v>0.06276289597697726</v>
+      </c>
+      <c r="AH84" t="n">
+        <v>0.2338291425542823</v>
+      </c>
+      <c r="AI84" t="n">
+        <v>0.6417078691813701</v>
+      </c>
+      <c r="AJ84" t="n">
+        <v>1.485330676357003</v>
+      </c>
+      <c r="AK84" t="n">
+        <v>3.136485091722752</v>
+      </c>
+      <c r="AL84" t="n">
+        <v>6.022535403650926</v>
+      </c>
+      <c r="AM84" t="n">
+        <v>10.81570626829409</v>
+      </c>
+      <c r="AN84" t="n">
+        <v>17.68509033254459</v>
+      </c>
+      <c r="AO84" t="n">
+        <v>26.25257310059125</v>
+      </c>
+      <c r="AP84" t="n">
+        <v>34.32322083305523</v>
+      </c>
+      <c r="AQ84" t="n">
+        <v>37.2968763251586</v>
+      </c>
+      <c r="AR84" t="n">
+        <v>41.08188088107575</v>
+      </c>
+      <c r="AS84" t="n">
+        <v>45.28199638986612</v>
+      </c>
+      <c r="AT84" t="n">
+        <v>49.09956138890629</v>
+      </c>
+      <c r="AU84" t="n">
+        <v>54.34174742910779</v>
+      </c>
+      <c r="AV84" t="n">
+        <v>61.95692815688898</v>
+      </c>
+      <c r="AW84" t="n">
+        <v>70.41253256900237</v>
+      </c>
+      <c r="AX84" t="n">
+        <v>76.77528210881803</v>
+      </c>
+      <c r="AY84" t="n">
+        <v>83.12959546931853</v>
+      </c>
+      <c r="AZ84" t="n">
+        <v>90.86557015806915</v>
+      </c>
+      <c r="BA84" t="n">
+        <v>99.4641143578727</v>
+      </c>
+      <c r="BB84" t="n">
+        <v>100</v>
+      </c>
+      <c r="BC84" t="n">
+        <v>100</v>
+      </c>
+      <c r="BD84" t="n">
+        <v>100</v>
+      </c>
+      <c r="BE84" t="n">
+        <v>100</v>
+      </c>
+      <c r="BF84" t="n">
+        <v>100</v>
+      </c>
+      <c r="BG84" t="n">
+        <v>100</v>
+      </c>
+      <c r="BH84" t="n">
+        <v>22.69301594845085</v>
+      </c>
+      <c r="BI84" t="n">
+        <v>23.48775228394765</v>
+      </c>
+      <c r="BJ84" t="n">
+        <v>26.41122422702011</v>
+      </c>
+      <c r="BK84" t="n">
+        <v>28.14710760319407</v>
+      </c>
+      <c r="BL84" t="n">
+        <v>29.93598914144788</v>
+      </c>
+      <c r="BM84" t="n">
+        <v>38.41149018973531</v>
+      </c>
+      <c r="BN84" t="n">
+        <v>50.10566256793943</v>
+      </c>
+      <c r="BO84" t="n">
+        <v>59.27478089526025</v>
+      </c>
+      <c r="BP84" t="n">
+        <v>67.43288072805662</v>
+      </c>
+      <c r="BQ84" t="n">
+        <v>72.64315770712771</v>
+      </c>
+      <c r="BR84" t="n">
+        <v>80.36763625236604</v>
+      </c>
+      <c r="BS84" t="n">
+        <v>92.82253991342183</v>
+      </c>
+      <c r="BT84" t="n">
+        <v>110.8193275193019</v>
+      </c>
+      <c r="BU84" t="n">
+        <v>183.2496452874025</v>
+      </c>
+      <c r="BV84" t="n">
+        <v>10</v>
+      </c>
+      <c r="BW84" t="n">
+        <v>9.282253991342184</v>
+      </c>
+      <c r="BX84" t="n">
+        <v>11.59895310805857</v>
+      </c>
+      <c r="BY84" t="n">
+        <v>14.49386251749056</v>
+      </c>
+      <c r="BZ84" t="n">
+        <v>18.11129407273546</v>
+      </c>
+      <c r="CA84" t="n">
+        <v>22.63157751036093</v>
+      </c>
+      <c r="CB84" t="n">
+        <v>28.28004992633394</v>
+      </c>
+      <c r="CC84" t="n">
+        <v>35.33828887843998</v>
+      </c>
+      <c r="CD84" t="n">
+        <v>44.15814908775026</v>
+      </c>
+      <c r="CE84" t="n">
+        <v>55.17930247170644</v>
+      </c>
+      <c r="CF84" t="n">
+        <v>68.95115588322295</v>
+      </c>
+      <c r="CG84" t="n">
+        <v>86.16023915978808</v>
+      </c>
+      <c r="CH84" t="n">
+        <v>107.6644287826677</v>
+      </c>
+      <c r="CI84" t="n">
+        <v>134.5357132029419</v>
+      </c>
+      <c r="CJ84" t="n">
+        <v>168.1136316950211</v>
+      </c>
+      <c r="CK84" t="n">
+        <v>210.0720506759182</v>
+      </c>
+      <c r="CL84" t="n">
+        <v>262.50260630407</v>
+      </c>
+      <c r="CM84" t="n">
+        <v>13.36220835390115</v>
+      </c>
+      <c r="CN84" t="n">
+        <v>5.036361321240847</v>
+      </c>
+      <c r="CO84" t="n">
+        <v>15.71208387010702</v>
+      </c>
+      <c r="CP84" t="n">
+        <v>19.66350918045736</v>
+      </c>
+      <c r="CQ84" t="n">
+        <v>22.5101786076958</v>
+      </c>
+      <c r="CR84" t="n">
+        <v>12.88555790472947</v>
+      </c>
+      <c r="CS84" t="n">
+        <v>11.53431267028141</v>
+      </c>
+      <c r="CT84" t="n">
+        <v>5.419375023868874</v>
+      </c>
+      <c r="CU84" t="n">
+        <v>5.825520829703123</v>
+      </c>
+      <c r="CV84" t="n">
+        <v>13.69735907538293</v>
+      </c>
+      <c r="CW84" t="n">
+        <v>3.800891075545323</v>
+      </c>
+      <c r="CX84" t="n">
+        <v>4.091063788879552</v>
+      </c>
+      <c r="CY84" t="n">
+        <v>3.984126570517446</v>
+      </c>
+      <c r="CZ84" t="n">
+        <v>5.952130462537788</v>
+      </c>
+      <c r="DA84" t="n">
+        <v>4.238930450796559</v>
+      </c>
+      <c r="DB84" t="n">
+        <v>4.777086122218208</v>
+      </c>
+      <c r="DC84" t="n">
+        <v>2.669121149627294</v>
+      </c>
+      <c r="DD84" t="n">
+        <v>2.466006968291651</v>
+      </c>
+      <c r="DE84" t="n">
+        <v>0.8419172356322662</v>
+      </c>
+      <c r="DF84" t="n">
+        <v>120.9222548999101</v>
+      </c>
+      <c r="DG84" t="n">
+        <v>230.5078916471332</v>
+      </c>
+      <c r="DH84" t="n">
+        <v>0.9164510503962189</v>
+      </c>
+      <c r="DI84" t="n">
+        <v>0.7949820892376444</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="n">
+        <v>2.430415225439982</v>
+      </c>
+      <c r="C85" t="n">
+        <v>1.374290572726185</v>
+      </c>
+      <c r="D85" t="n">
+        <v>1.263224051949859</v>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>GP</t>
+        </is>
+      </c>
+      <c r="F85" t="n">
+        <v>2.31074006345631</v>
+      </c>
+      <c r="G85" t="n">
+        <v>129.4471795663245</v>
+      </c>
+      <c r="H85" t="n">
+        <v>1800.179979320122</v>
+      </c>
+      <c r="I85" t="n">
+        <v>130</v>
+      </c>
+      <c r="J85" t="n">
+        <v>0</v>
+      </c>
+      <c r="K85" t="n">
+        <v>0</v>
+      </c>
+      <c r="L85" t="n">
+        <v>0</v>
+      </c>
+      <c r="M85" t="n">
+        <v>0</v>
+      </c>
+      <c r="N85" t="n">
+        <v>0</v>
+      </c>
+      <c r="O85" t="n">
+        <v>0</v>
+      </c>
+      <c r="P85" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>0</v>
+      </c>
+      <c r="R85" t="n">
+        <v>9.510029221366363e-07</v>
+      </c>
+      <c r="S85" t="n">
+        <v>9.510029221366363e-07</v>
+      </c>
+      <c r="T85" t="n">
+        <v>5.803055128023866e-06</v>
+      </c>
+      <c r="U85" t="n">
+        <v>1.714720203384676e-05</v>
+      </c>
+      <c r="V85" t="n">
+        <v>2.692418888692324e-05</v>
+      </c>
+      <c r="W85" t="n">
+        <v>4.334467963790338e-05</v>
+      </c>
+      <c r="X85" t="n">
+        <v>6.87350910332788e-05</v>
+      </c>
+      <c r="Y85" t="n">
+        <v>0.000129715728078064</v>
+      </c>
+      <c r="Z85" t="n">
+        <v>0.0001878327136496328</v>
+      </c>
+      <c r="AA85" t="n">
+        <v>0.0002558420351390969</v>
+      </c>
+      <c r="AB85" t="n">
+        <v>0.0003480507928798855</v>
+      </c>
+      <c r="AC85" t="n">
+        <v>0.0005324326914321498</v>
+      </c>
+      <c r="AD85" t="n">
+        <v>0.0008182765146764013</v>
+      </c>
+      <c r="AE85" t="n">
+        <v>0.0009462569753492861</v>
+      </c>
+      <c r="AF85" t="n">
+        <v>0.001786118377635729</v>
+      </c>
+      <c r="AG85" t="n">
+        <v>0.002511336510093357</v>
+      </c>
+      <c r="AH85" t="n">
+        <v>0.009537019744507675</v>
+      </c>
+      <c r="AI85" t="n">
+        <v>0.0355877262741728</v>
+      </c>
+      <c r="AJ85" t="n">
+        <v>0.08304554405636128</v>
+      </c>
+      <c r="AK85" t="n">
+        <v>0.1675468029643771</v>
+      </c>
+      <c r="AL85" t="n">
+        <v>0.3323021331828698</v>
+      </c>
+      <c r="AM85" t="n">
+        <v>0.6537958795661863</v>
+      </c>
+      <c r="AN85" t="n">
+        <v>1.21087444724706</v>
+      </c>
+      <c r="AO85" t="n">
+        <v>2.128634080575984</v>
+      </c>
+      <c r="AP85" t="n">
+        <v>3.741360617518023</v>
+      </c>
+      <c r="AQ85" t="n">
+        <v>6.03081429651876</v>
+      </c>
+      <c r="AR85" t="n">
+        <v>9.112556640406634</v>
+      </c>
+      <c r="AS85" t="n">
+        <v>12.42489850438557</v>
+      </c>
+      <c r="AT85" t="n">
+        <v>15.97432530549237</v>
+      </c>
+      <c r="AU85" t="n">
+        <v>17.53515901106462</v>
+      </c>
+      <c r="AV85" t="n">
+        <v>19.93891456416861</v>
+      </c>
+      <c r="AW85" t="n">
+        <v>24.4134257777558</v>
+      </c>
+      <c r="AX85" t="n">
+        <v>31.10347654377802</v>
+      </c>
+      <c r="AY85" t="n">
+        <v>39.4569363540951</v>
+      </c>
+      <c r="AZ85" t="n">
+        <v>51.64092570620051</v>
+      </c>
+      <c r="BA85" t="n">
+        <v>68.29196319258753</v>
+      </c>
+      <c r="BB85" t="n">
+        <v>84.20862088361558</v>
+      </c>
+      <c r="BC85" t="n">
+        <v>100</v>
+      </c>
+      <c r="BD85" t="n">
+        <v>100</v>
+      </c>
+      <c r="BE85" t="n">
+        <v>100</v>
+      </c>
+      <c r="BF85" t="n">
+        <v>100</v>
+      </c>
+      <c r="BG85" t="n">
+        <v>100</v>
+      </c>
+      <c r="BH85" t="n">
+        <v>40.79853991141029</v>
+      </c>
+      <c r="BI85" t="n">
+        <v>43.48435836458039</v>
+      </c>
+      <c r="BJ85" t="n">
+        <v>60.9509814094093</v>
+      </c>
+      <c r="BK85" t="n">
+        <v>68.69723438191396</v>
+      </c>
+      <c r="BL85" t="n">
+        <v>74.56313218600627</v>
+      </c>
+      <c r="BM85" t="n">
+        <v>84.61627801362116</v>
+      </c>
+      <c r="BN85" t="n">
+        <v>92.48225908673342</v>
+      </c>
+      <c r="BO85" t="n">
+        <v>99.15739257641236</v>
+      </c>
+      <c r="BP85" t="n">
+        <v>105.7008085431349</v>
+      </c>
+      <c r="BQ85" t="n">
+        <v>109.6225816790799</v>
+      </c>
+      <c r="BR85" t="n">
+        <v>112.1779965687887</v>
+      </c>
+      <c r="BS85" t="n">
+        <v>119.7416180736431</v>
+      </c>
+      <c r="BT85" t="n">
+        <v>167.5657229767625</v>
+      </c>
+      <c r="BU85" t="n">
+        <v>340.7200211621723</v>
+      </c>
+      <c r="BV85" t="n">
+        <v>10</v>
+      </c>
+      <c r="BW85" t="n">
+        <v>11.97416180736431</v>
+      </c>
+      <c r="BX85" t="n">
+        <v>15.34863062876447</v>
+      </c>
+      <c r="BY85" t="n">
+        <v>19.67406704270196</v>
+      </c>
+      <c r="BZ85" t="n">
+        <v>25.21846563141183</v>
+      </c>
+      <c r="CA85" t="n">
+        <v>32.32534520810282</v>
+      </c>
+      <c r="CB85" t="n">
+        <v>41.43503249148774</v>
+      </c>
+      <c r="CC85" t="n">
+        <v>53.11194378645918</v>
+      </c>
+      <c r="CD85" t="n">
+        <v>68.07955498419147</v>
+      </c>
+      <c r="CE85" t="n">
+        <v>87.26522654640995</v>
+      </c>
+      <c r="CF85" t="n">
+        <v>111.8576607318387</v>
+      </c>
+      <c r="CG85" t="n">
+        <v>143.3805509889424</v>
+      </c>
+      <c r="CH85" t="n">
+        <v>183.7869866702939</v>
+      </c>
+      <c r="CI85" t="n">
+        <v>235.5804621782472</v>
+      </c>
+      <c r="CJ85" t="n">
+        <v>301.9699880039816</v>
+      </c>
+      <c r="CK85" t="n">
+        <v>387.0689140007324</v>
+      </c>
+      <c r="CL85" t="n">
+        <v>496.1497835464727</v>
+      </c>
+      <c r="CM85" t="n">
+        <v>2.47834874748704</v>
+      </c>
+      <c r="CN85" t="n">
+        <v>5.672699706893155</v>
+      </c>
+      <c r="CO85" t="n">
+        <v>19.58715478097488</v>
+      </c>
+      <c r="CP85" t="n">
+        <v>31.70803680741247</v>
+      </c>
+      <c r="CQ85" t="n">
+        <v>14.56780057599684</v>
+      </c>
+      <c r="CR85" t="n">
+        <v>15.79137911638442</v>
+      </c>
+      <c r="CS85" t="n">
+        <v>17.27552048588012</v>
+      </c>
+      <c r="CT85" t="n">
+        <v>8.380250718159136</v>
+      </c>
+      <c r="CU85" t="n">
+        <v>10.27986871516623</v>
+      </c>
+      <c r="CV85" t="n">
+        <v>5.277187980176123</v>
+      </c>
+      <c r="CW85" t="n">
+        <v>9.38474743777364</v>
+      </c>
+      <c r="CX85" t="n">
+        <v>4.755897661309376</v>
+      </c>
+      <c r="CY85" t="n">
+        <v>12.36641025676181</v>
+      </c>
+      <c r="CZ85" t="n">
+        <v>6.438432851339627</v>
+      </c>
+      <c r="DA85" t="n">
+        <v>8.177968702738724</v>
+      </c>
+      <c r="DB85" t="n">
+        <v>6.289719307813002</v>
+      </c>
+      <c r="DC85" t="n">
+        <v>3.095398182251706</v>
+      </c>
+      <c r="DD85" t="n">
+        <v>2.960698530148022</v>
+      </c>
+      <c r="DE85" t="n">
+        <v>1.043198009992103</v>
+      </c>
+      <c r="DF85" t="n">
+        <v>209.1764461891684</v>
+      </c>
+      <c r="DG85" t="n">
+        <v>429.2533046682897</v>
+      </c>
+      <c r="DH85" t="n">
+        <v>0.8010735722377875</v>
+      </c>
+      <c r="DI85" t="n">
+        <v>0.793750490576811</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="n">
+        <v>2.163069637477877</v>
+      </c>
+      <c r="C86" t="n">
+        <v>0.8536911879786077</v>
+      </c>
+      <c r="D86" t="n">
+        <v>2.300098726328573</v>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>GP</t>
+        </is>
+      </c>
+      <c r="F86" t="n">
+        <v>1.736279812304367</v>
+      </c>
+      <c r="G86" t="n">
+        <v>168.9444570291847</v>
+      </c>
+      <c r="H86" t="n">
+        <v>1800.014651405322</v>
+      </c>
+      <c r="I86" t="n">
+        <v>150</v>
+      </c>
+      <c r="J86" t="n">
+        <v>0</v>
+      </c>
+      <c r="K86" t="n">
+        <v>0</v>
+      </c>
+      <c r="L86" t="n">
+        <v>0</v>
+      </c>
+      <c r="M86" t="n">
+        <v>0</v>
+      </c>
+      <c r="N86" t="n">
+        <v>0</v>
+      </c>
+      <c r="O86" t="n">
+        <v>0</v>
+      </c>
+      <c r="P86" t="n">
+        <v>0.00145928200216541</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>0.005048672540079372</v>
+      </c>
+      <c r="R86" t="n">
+        <v>0.0121565818403468</v>
+      </c>
+      <c r="S86" t="n">
+        <v>0.02519060768119536</v>
+      </c>
+      <c r="T86" t="n">
+        <v>0.0486364784223644</v>
+      </c>
+      <c r="U86" t="n">
+        <v>0.0899525874706039</v>
+      </c>
+      <c r="V86" t="n">
+        <v>0.1640813249208972</v>
+      </c>
+      <c r="W86" t="n">
+        <v>0.29233810134018</v>
+      </c>
+      <c r="X86" t="n">
+        <v>0.5165674231654167</v>
+      </c>
+      <c r="Y86" t="n">
+        <v>0.9060992782341629</v>
+      </c>
+      <c r="Z86" t="n">
+        <v>1.5727758966252</v>
+      </c>
+      <c r="AA86" t="n">
+        <v>2.682383610591559</v>
+      </c>
+      <c r="AB86" t="n">
+        <v>4.503655835564264</v>
+      </c>
+      <c r="AC86" t="n">
+        <v>7.38815432991103</v>
+      </c>
+      <c r="AD86" t="n">
+        <v>11.73586647396729</v>
+      </c>
+      <c r="AE86" t="n">
+        <v>17.8844782328408</v>
+      </c>
+      <c r="AF86" t="n">
+        <v>25.7634601288141</v>
+      </c>
+      <c r="AG86" t="n">
+        <v>34.76084446616805</v>
+      </c>
+      <c r="AH86" t="n">
+        <v>42.4199906957788</v>
+      </c>
+      <c r="AI86" t="n">
+        <v>45.74386963908724</v>
+      </c>
+      <c r="AJ86" t="n">
+        <v>52.38155315792861</v>
+      </c>
+      <c r="AK86" t="n">
+        <v>62.41615502108993</v>
+      </c>
+      <c r="AL86" t="n">
+        <v>72.34793511739059</v>
+      </c>
+      <c r="AM86" t="n">
+        <v>74.57744861263886</v>
+      </c>
+      <c r="AN86" t="n">
+        <v>74.57979879186138</v>
+      </c>
+      <c r="AO86" t="n">
+        <v>74.59031904300934</v>
+      </c>
+      <c r="AP86" t="n">
+        <v>74.60982448354898</v>
+      </c>
+      <c r="AQ86" t="n">
+        <v>74.62148965712434</v>
+      </c>
+      <c r="AR86" t="n">
+        <v>74.64436983276399</v>
+      </c>
+      <c r="AS86" t="n">
+        <v>74.6998413216873</v>
+      </c>
+      <c r="AT86" t="n">
+        <v>74.77946582661076</v>
+      </c>
+      <c r="AU86" t="n">
+        <v>74.93288215327345</v>
+      </c>
+      <c r="AV86" t="n">
+        <v>75.18907406935162</v>
+      </c>
+      <c r="AW86" t="n">
+        <v>75.64397150385636</v>
+      </c>
+      <c r="AX86" t="n">
+        <v>76.47486534119939</v>
+      </c>
+      <c r="AY86" t="n">
+        <v>77.61422762460928</v>
+      </c>
+      <c r="AZ86" t="n">
+        <v>79.6333069805725</v>
+      </c>
+      <c r="BA86" t="n">
+        <v>81.75425928496249</v>
+      </c>
+      <c r="BB86" t="n">
+        <v>85.42807430471842</v>
+      </c>
+      <c r="BC86" t="n">
+        <v>89.18451844096322</v>
+      </c>
+      <c r="BD86" t="n">
+        <v>93.7635600192873</v>
+      </c>
+      <c r="BE86" t="n">
+        <v>97.88682539296715</v>
+      </c>
+      <c r="BF86" t="n">
+        <v>100</v>
+      </c>
+      <c r="BG86" t="n">
+        <v>100</v>
+      </c>
+      <c r="BH86" t="n">
+        <v>8.366256352224903</v>
+      </c>
+      <c r="BI86" t="n">
+        <v>8.740742993198472</v>
+      </c>
+      <c r="BJ86" t="n">
+        <v>9.994013080006809</v>
+      </c>
+      <c r="BK86" t="n">
+        <v>10.68836103577328</v>
+      </c>
+      <c r="BL86" t="n">
+        <v>11.36885736113437</v>
+      </c>
+      <c r="BM86" t="n">
+        <v>12.79994966242396</v>
+      </c>
+      <c r="BN86" t="n">
+        <v>16.10707036625601</v>
+      </c>
+      <c r="BO86" t="n">
+        <v>18.09679509485411</v>
+      </c>
+      <c r="BP86" t="n">
+        <v>20.05853987914858</v>
+      </c>
+      <c r="BQ86" t="n">
+        <v>56.54628400757912</v>
+      </c>
+      <c r="BR86" t="n">
+        <v>96.03865350358224</v>
+      </c>
+      <c r="BS86" t="n">
+        <v>131.5995839332343</v>
+      </c>
+      <c r="BT86" t="n">
+        <v>285.4222956088604</v>
+      </c>
+      <c r="BU86" t="n">
+        <v>757.4460745435357</v>
+      </c>
+      <c r="BV86" t="n">
+        <v>10</v>
+      </c>
+      <c r="BW86" t="n">
+        <v>13.15995839332343</v>
+      </c>
+      <c r="BX86" t="n">
+        <v>17.02864014144339</v>
+      </c>
+      <c r="BY86" t="n">
+        <v>22.03461260287059</v>
+      </c>
+      <c r="BZ86" t="n">
+        <v>28.51220934412377</v>
+      </c>
+      <c r="CA86" t="n">
+        <v>36.89404920952553</v>
+      </c>
+      <c r="CB86" t="n">
+        <v>47.7399296086265</v>
+      </c>
+      <c r="CC86" t="n">
+        <v>61.77421367043065</v>
+      </c>
+      <c r="CD86" t="n">
+        <v>79.93420823792896</v>
+      </c>
+      <c r="CE86" t="n">
+        <v>103.432763721006</v>
+      </c>
+      <c r="CF86" t="n">
+        <v>133.8392766601404</v>
+      </c>
+      <c r="CG86" t="n">
+        <v>173.1845049140042</v>
+      </c>
+      <c r="CH86" t="n">
+        <v>224.0961957562727</v>
+      </c>
+      <c r="CI86" t="n">
+        <v>289.9745850667777</v>
+      </c>
+      <c r="CJ86" t="n">
+        <v>375.2194886703973</v>
+      </c>
+      <c r="CK86" t="n">
+        <v>485.5241525585844</v>
+      </c>
+      <c r="CL86" t="n">
+        <v>628.2554873497156</v>
+      </c>
+      <c r="CM86" t="n">
+        <v>2.488066432589321</v>
+      </c>
+      <c r="CN86" t="n">
+        <v>1.334614122647139</v>
+      </c>
+      <c r="CO86" t="n">
+        <v>25.42255138736114</v>
+      </c>
+      <c r="CP86" t="n">
+        <v>29.93693401186135</v>
+      </c>
+      <c r="CQ86" t="n">
+        <v>31.97311369968254</v>
+      </c>
+      <c r="CR86" t="n">
+        <v>22.38577237539072</v>
+      </c>
+      <c r="CS86" t="n">
+        <v>14.09288736077413</v>
+      </c>
+      <c r="CT86" t="n">
+        <v>13.53520499463738</v>
+      </c>
+      <c r="CU86" t="n">
+        <v>10.81548155903678</v>
+      </c>
+      <c r="CV86" t="n">
+        <v>16.33639872016832</v>
+      </c>
+      <c r="CW86" t="n">
+        <v>10.81548155903678</v>
+      </c>
+      <c r="CX86" t="n">
+        <v>7.322977044059286</v>
+      </c>
+      <c r="CY86" t="n">
+        <v>7.375336367911856</v>
+      </c>
+      <c r="CZ86" t="n">
+        <v>8.726470489136261</v>
+      </c>
+      <c r="DA86" t="n">
+        <v>4.463165708872395</v>
+      </c>
+      <c r="DB86" t="n">
+        <v>2.474984207713376</v>
+      </c>
+      <c r="DC86" t="n">
+        <v>3.643531911807273</v>
+      </c>
+      <c r="DD86" t="n">
+        <v>3.691103625679091</v>
+      </c>
+      <c r="DE86" t="n">
+        <v>0.9708297167648823</v>
+      </c>
+      <c r="DF86" t="n">
+        <v>256.3125742187333</v>
+      </c>
+      <c r="DG86" t="n">
+        <v>540.5611861948753</v>
+      </c>
+      <c r="DH86" t="n">
+        <v>1.113571179560178</v>
+      </c>
+      <c r="DI86" t="n">
+        <v>1.401221718997916</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="n">
+        <v>5.655116794244879</v>
+      </c>
+      <c r="C87" t="n">
+        <v>0.4130107510535783</v>
+      </c>
+      <c r="D87" t="n">
+        <v>3.515867704864691</v>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>GP</t>
+        </is>
+      </c>
+      <c r="F87" t="n">
+        <v>1.668178203779451</v>
+      </c>
+      <c r="G87" t="n">
+        <v>198.4631087771949</v>
+      </c>
+      <c r="H87" t="n">
+        <v>1801.093157585298</v>
+      </c>
+      <c r="I87" t="n">
+        <v>220</v>
+      </c>
+      <c r="J87" t="n">
+        <v>0</v>
+      </c>
+      <c r="K87" t="n">
+        <v>0</v>
+      </c>
+      <c r="L87" t="n">
+        <v>0</v>
+      </c>
+      <c r="M87" t="n">
+        <v>0</v>
+      </c>
+      <c r="N87" t="n">
+        <v>0</v>
+      </c>
+      <c r="O87" t="n">
+        <v>1.843995899030841e-06</v>
+      </c>
+      <c r="P87" t="n">
+        <v>8.419505361073911e-06</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>1.790951815537208e-05</v>
+      </c>
+      <c r="R87" t="n">
+        <v>0.0003041309943586691</v>
+      </c>
+      <c r="S87" t="n">
+        <v>0.005612745077546083</v>
+      </c>
+      <c r="T87" t="n">
+        <v>0.01732614861403829</v>
+      </c>
+      <c r="U87" t="n">
+        <v>0.1165536245582402</v>
+      </c>
+      <c r="V87" t="n">
+        <v>0.4722365725731626</v>
+      </c>
+      <c r="W87" t="n">
+        <v>1.272104723062689</v>
+      </c>
+      <c r="X87" t="n">
+        <v>2.679477593441058</v>
+      </c>
+      <c r="Y87" t="n">
+        <v>4.484377868942784</v>
+      </c>
+      <c r="Z87" t="n">
+        <v>5.807267814536383</v>
+      </c>
+      <c r="AA87" t="n">
+        <v>6.584165686971676</v>
+      </c>
+      <c r="AB87" t="n">
+        <v>7.884948989662958</v>
+      </c>
+      <c r="AC87" t="n">
+        <v>9.978751229901917</v>
+      </c>
+      <c r="AD87" t="n">
+        <v>13.19471379605577</v>
+      </c>
+      <c r="AE87" t="n">
+        <v>17.79556397573945</v>
+      </c>
+      <c r="AF87" t="n">
+        <v>23.76860024411609</v>
+      </c>
+      <c r="AG87" t="n">
+        <v>30.47089095191537</v>
+      </c>
+      <c r="AH87" t="n">
+        <v>35.42497582155574</v>
+      </c>
+      <c r="AI87" t="n">
+        <v>35.54392027650733</v>
+      </c>
+      <c r="AJ87" t="n">
+        <v>35.74645000659068</v>
+      </c>
+      <c r="AK87" t="n">
+        <v>36.08206335352794</v>
+      </c>
+      <c r="AL87" t="n">
+        <v>36.61086576600933</v>
+      </c>
+      <c r="AM87" t="n">
+        <v>37.47526348009712</v>
+      </c>
+      <c r="AN87" t="n">
+        <v>38.87400692359197</v>
+      </c>
+      <c r="AO87" t="n">
+        <v>41.02455572351803</v>
+      </c>
+      <c r="AP87" t="n">
+        <v>44.0989847964862</v>
+      </c>
+      <c r="AQ87" t="n">
+        <v>48.33046038892149</v>
+      </c>
+      <c r="AR87" t="n">
+        <v>53.60771050371859</v>
+      </c>
+      <c r="AS87" t="n">
+        <v>59.80365470895364</v>
+      </c>
+      <c r="AT87" t="n">
+        <v>64.22110137966415</v>
+      </c>
+      <c r="AU87" t="n">
+        <v>64.30694552871519</v>
+      </c>
+      <c r="AV87" t="n">
+        <v>64.47217279411736</v>
+      </c>
+      <c r="AW87" t="n">
+        <v>64.72528664736238</v>
+      </c>
+      <c r="AX87" t="n">
+        <v>65.2126893851685</v>
+      </c>
+      <c r="AY87" t="n">
+        <v>66.3005506451458</v>
+      </c>
+      <c r="AZ87" t="n">
+        <v>66.83361098355169</v>
+      </c>
+      <c r="BA87" t="n">
+        <v>68.45151296338754</v>
+      </c>
+      <c r="BB87" t="n">
+        <v>71.35980029728198</v>
+      </c>
+      <c r="BC87" t="n">
+        <v>73.4316565191299</v>
+      </c>
+      <c r="BD87" t="n">
+        <v>78.317729591651</v>
+      </c>
+      <c r="BE87" t="n">
+        <v>83.96547569830113</v>
+      </c>
+      <c r="BF87" t="n">
+        <v>92.39989957322452</v>
+      </c>
+      <c r="BG87" t="n">
+        <v>100</v>
+      </c>
+      <c r="BH87" t="n">
+        <v>7.809219989892787</v>
+      </c>
+      <c r="BI87" t="n">
+        <v>8.389799550960564</v>
+      </c>
+      <c r="BJ87" t="n">
+        <v>10.1038629893358</v>
+      </c>
+      <c r="BK87" t="n">
+        <v>11.01267191417909</v>
+      </c>
+      <c r="BL87" t="n">
+        <v>11.93463455298348</v>
+      </c>
+      <c r="BM87" t="n">
+        <v>27.29750195862799</v>
+      </c>
+      <c r="BN87" t="n">
+        <v>36.77722192695177</v>
+      </c>
+      <c r="BO87" t="n">
+        <v>44.16205111479552</v>
+      </c>
+      <c r="BP87" t="n">
+        <v>111.8028795649189</v>
+      </c>
+      <c r="BQ87" t="n">
+        <v>136.1312245578553</v>
+      </c>
+      <c r="BR87" t="n">
+        <v>151.7852728681093</v>
+      </c>
+      <c r="BS87" t="n">
+        <v>174.5809805593915</v>
+      </c>
+      <c r="BT87" t="n">
+        <v>393.8760554550868</v>
+      </c>
+      <c r="BU87" t="n">
+        <v>1227.889390676675</v>
+      </c>
+      <c r="BV87" t="n">
+        <v>10</v>
+      </c>
+      <c r="BW87" t="n">
+        <v>17.45809805593915</v>
+      </c>
+      <c r="BX87" t="n">
+        <v>23.23788623889705</v>
+      </c>
+      <c r="BY87" t="n">
+        <v>30.93116759464046</v>
+      </c>
+      <c r="BZ87" t="n">
+        <v>41.17143525585769</v>
+      </c>
+      <c r="CA87" t="n">
+        <v>54.80191059198797</v>
+      </c>
+      <c r="CB87" t="n">
+        <v>72.94497716362592</v>
+      </c>
+      <c r="CC87" t="n">
+        <v>97.09460192031757</v>
+      </c>
+      <c r="CD87" t="n">
+        <v>129.2393539436996</v>
+      </c>
+      <c r="CE87" t="n">
+        <v>172.0261505525542</v>
+      </c>
+      <c r="CF87" t="n">
+        <v>228.9782142273909</v>
+      </c>
+      <c r="CG87" t="n">
+        <v>304.7851877307872</v>
+      </c>
+      <c r="CH87" t="n">
+        <v>405.6892965714248</v>
+      </c>
+      <c r="CI87" t="n">
+        <v>539.9993568519222</v>
+      </c>
+      <c r="CJ87" t="n">
+        <v>718.7749538005158</v>
+      </c>
+      <c r="CK87" t="n">
+        <v>956.7371287677388</v>
+      </c>
+      <c r="CL87" t="n">
+        <v>1273.480564010827</v>
+      </c>
+      <c r="CM87" t="n">
+        <v>6.099941360908488</v>
+      </c>
+      <c r="CN87" t="n">
+        <v>1.314556591290341</v>
+      </c>
+      <c r="CO87" t="n">
+        <v>35.77889862033585</v>
+      </c>
+      <c r="CP87" t="n">
+        <v>16.03452430169887</v>
+      </c>
+      <c r="CQ87" t="n">
+        <v>33.6994493548542</v>
+      </c>
+      <c r="CR87" t="n">
+        <v>24.754212620333</v>
+      </c>
+      <c r="CS87" t="n">
+        <v>35.27471335263762</v>
+      </c>
+      <c r="CT87" t="n">
+        <v>14.75312835576088</v>
+      </c>
+      <c r="CU87" t="n">
+        <v>8.089923945088174</v>
+      </c>
+      <c r="CV87" t="n">
+        <v>15.00914105023544</v>
+      </c>
+      <c r="CW87" t="n">
+        <v>20.82832478233145</v>
+      </c>
+      <c r="CX87" t="n">
+        <v>16.03452430169887</v>
+      </c>
+      <c r="CY87" t="n">
+        <v>6.187673040213937</v>
+      </c>
+      <c r="CZ87" t="n">
+        <v>8.196821492444812</v>
+      </c>
+      <c r="DA87" t="n">
+        <v>7.937600512575791</v>
+      </c>
+      <c r="DB87" t="n">
+        <v>6.193872690048295</v>
+      </c>
+      <c r="DC87" t="n">
+        <v>2.954038370264314</v>
+      </c>
+      <c r="DD87" t="n">
+        <v>5.714984288702951</v>
+      </c>
+      <c r="DE87" t="n">
+        <v>1.361486384697088</v>
+      </c>
+      <c r="DF87" t="n">
+        <v>470.8974078255995</v>
+      </c>
+      <c r="DG87" t="n">
+        <v>1077.806359189046</v>
+      </c>
+      <c r="DH87" t="n">
+        <v>0.8364370856782499</v>
+      </c>
+      <c r="DI87" t="n">
+        <v>1.139248604545767</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="n">
+        <v>1.546938708754086</v>
+      </c>
+      <c r="C88" t="n">
+        <v>1.062071280474113</v>
+      </c>
+      <c r="D88" t="n">
+        <v>1.167162024957767</v>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>GP</t>
+        </is>
+      </c>
+      <c r="F88" t="n">
+        <v>13.52379550767349</v>
+      </c>
+      <c r="G88" t="n">
+        <v>99.13996165905631</v>
+      </c>
+      <c r="H88" t="n">
+        <v>1800.155538321989</v>
+      </c>
+      <c r="I88" t="n">
+        <v>60</v>
+      </c>
+      <c r="J88" t="n">
+        <v>0</v>
+      </c>
+      <c r="K88" t="n">
+        <v>0</v>
+      </c>
+      <c r="L88" t="n">
+        <v>0</v>
+      </c>
+      <c r="M88" t="n">
+        <v>0</v>
+      </c>
+      <c r="N88" t="n">
+        <v>0</v>
+      </c>
+      <c r="O88" t="n">
+        <v>0</v>
+      </c>
+      <c r="P88" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q88" t="n">
+        <v>0</v>
+      </c>
+      <c r="R88" t="n">
+        <v>0</v>
+      </c>
+      <c r="S88" t="n">
+        <v>0</v>
+      </c>
+      <c r="T88" t="n">
+        <v>0</v>
+      </c>
+      <c r="U88" t="n">
+        <v>0</v>
+      </c>
+      <c r="V88" t="n">
+        <v>0</v>
+      </c>
+      <c r="W88" t="n">
+        <v>0</v>
+      </c>
+      <c r="X88" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y88" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z88" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA88" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB88" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC88" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD88" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE88" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF88" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG88" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH88" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI88" t="n">
+        <v>0.006438869805651802</v>
+      </c>
+      <c r="AJ88" t="n">
+        <v>0.01749743189273862</v>
+      </c>
+      <c r="AK88" t="n">
+        <v>0.03664627572626795</v>
+      </c>
+      <c r="AL88" t="n">
+        <v>0.06973484245378969</v>
+      </c>
+      <c r="AM88" t="n">
+        <v>0.1408116835369604</v>
+      </c>
+      <c r="AN88" t="n">
+        <v>0.284322985391493</v>
+      </c>
+      <c r="AO88" t="n">
+        <v>0.4784101175821238</v>
+      </c>
+      <c r="AP88" t="n">
+        <v>0.8319731787435638</v>
+      </c>
+      <c r="AQ88" t="n">
+        <v>1.472269168305639</v>
+      </c>
+      <c r="AR88" t="n">
+        <v>2.776618057621077</v>
+      </c>
+      <c r="AS88" t="n">
+        <v>4.718855139508181</v>
+      </c>
+      <c r="AT88" t="n">
+        <v>8.044040539062653</v>
+      </c>
+      <c r="AU88" t="n">
+        <v>13.11031164235531</v>
+      </c>
+      <c r="AV88" t="n">
+        <v>21.41862645307002</v>
+      </c>
+      <c r="AW88" t="n">
+        <v>34.11230588515273</v>
+      </c>
+      <c r="AX88" t="n">
+        <v>50.88583128987013</v>
+      </c>
+      <c r="AY88" t="n">
+        <v>71.45207207450984</v>
+      </c>
+      <c r="AZ88" t="n">
+        <v>91.92007878966292</v>
+      </c>
+      <c r="BA88" t="n">
+        <v>100</v>
+      </c>
+      <c r="BB88" t="n">
+        <v>100</v>
+      </c>
+      <c r="BC88" t="n">
+        <v>100</v>
+      </c>
+      <c r="BD88" t="n">
+        <v>100</v>
+      </c>
+      <c r="BE88" t="n">
+        <v>100</v>
+      </c>
+      <c r="BF88" t="n">
+        <v>100</v>
+      </c>
+      <c r="BG88" t="n">
+        <v>100</v>
+      </c>
+      <c r="BH88" t="n">
+        <v>51.4512841802611</v>
+      </c>
+      <c r="BI88" t="n">
+        <v>53.6727708537209</v>
+      </c>
+      <c r="BJ88" t="n">
+        <v>60.01472524361751</v>
+      </c>
+      <c r="BK88" t="n">
+        <v>62.92890820623138</v>
+      </c>
+      <c r="BL88" t="n">
+        <v>65.94921111728266</v>
+      </c>
+      <c r="BM88" t="n">
+        <v>70.57170976291592</v>
+      </c>
+      <c r="BN88" t="n">
+        <v>75.2295384977474</v>
+      </c>
+      <c r="BO88" t="n">
+        <v>79.59198311355267</v>
+      </c>
+      <c r="BP88" t="n">
+        <v>83.53152564876385</v>
+      </c>
+      <c r="BQ88" t="n">
+        <v>85.72598710941419</v>
+      </c>
+      <c r="BR88" t="n">
+        <v>88.23342689988655</v>
+      </c>
+      <c r="BS88" t="n">
+        <v>92.96681980855061</v>
+      </c>
+      <c r="BT88" t="n">
+        <v>98.28731997759157</v>
+      </c>
+      <c r="BU88" t="n">
+        <v>153.0615534907321</v>
+      </c>
+      <c r="BV88" t="n">
+        <v>10</v>
+      </c>
+      <c r="BW88" t="n">
+        <v>9.296681980855061</v>
+      </c>
+      <c r="BX88" t="n">
+        <v>11.61878652690227</v>
+      </c>
+      <c r="BY88" t="n">
+        <v>14.52090118127388</v>
+      </c>
+      <c r="BZ88" t="n">
+        <v>18.14789957867815</v>
+      </c>
+      <c r="CA88" t="n">
+        <v>22.68084156805024</v>
+      </c>
+      <c r="CB88" t="n">
+        <v>28.34601172465078</v>
+      </c>
+      <c r="CC88" t="n">
+        <v>35.42621548161152</v>
+      </c>
+      <c r="CD88" t="n">
+        <v>44.27489678409189</v>
+      </c>
+      <c r="CE88" t="n">
+        <v>55.33378201968805</v>
+      </c>
+      <c r="CF88" t="n">
+        <v>69.1549310105332</v>
+      </c>
+      <c r="CG88" t="n">
+        <v>86.42829585315535</v>
+      </c>
+      <c r="CH88" t="n">
+        <v>108.0161633440541</v>
+      </c>
+      <c r="CI88" t="n">
+        <v>134.9962003577261</v>
+      </c>
+      <c r="CJ88" t="n">
+        <v>168.7152510034646</v>
+      </c>
+      <c r="CK88" t="n">
+        <v>210.8565711163215</v>
+      </c>
+      <c r="CL88" t="n">
+        <v>263.5238564296677</v>
+      </c>
+      <c r="CM88" t="n">
+        <v>5.481943140861802</v>
+      </c>
+      <c r="CN88" t="n">
+        <v>3.844291733196599</v>
+      </c>
+      <c r="CO88" t="n">
+        <v>23.02370341992387</v>
+      </c>
+      <c r="CP88" t="n">
+        <v>19.20306872293348</v>
+      </c>
+      <c r="CQ88" t="n">
+        <v>12.43029559717831</v>
+      </c>
+      <c r="CR88" t="n">
+        <v>12.67883469336528</v>
+      </c>
+      <c r="CS88" t="n">
+        <v>9.303905515755702</v>
+      </c>
+      <c r="CT88" t="n">
+        <v>3.003382912828471</v>
+      </c>
+      <c r="CU88" t="n">
+        <v>7.721185512677422</v>
+      </c>
+      <c r="CV88" t="n">
+        <v>3.910327721704448</v>
+      </c>
+      <c r="CW88" t="n">
+        <v>12.79341044000556</v>
+      </c>
+      <c r="CX88" t="n">
+        <v>4.99191751653246</v>
+      </c>
+      <c r="CY88" t="n">
+        <v>1.720852175380529</v>
+      </c>
+      <c r="CZ88" t="n">
+        <v>2.678660579402091</v>
+      </c>
+      <c r="DA88" t="n">
+        <v>2.996846489777454</v>
+      </c>
+      <c r="DB88" t="n">
+        <v>5.366693993098835</v>
+      </c>
+      <c r="DC88" t="n">
+        <v>2.37521999621849</v>
+      </c>
+      <c r="DD88" t="n">
+        <v>4.934948412960424</v>
+      </c>
+      <c r="DE88" t="n">
+        <v>3.440511587541767</v>
+      </c>
+      <c r="DF88" t="n">
+        <v>121.327123220411</v>
+      </c>
+      <c r="DG88" t="n">
+        <v>231.3837033189551</v>
+      </c>
+      <c r="DH88" t="n">
+        <v>0.8101017923175863</v>
+      </c>
+      <c r="DI88" t="n">
+        <v>0.66150533203171</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="n">
+        <v>17.89940588419068</v>
+      </c>
+      <c r="C89" t="n">
+        <v>8.863794391117581</v>
+      </c>
+      <c r="D89" t="n">
+        <v>3.830758283376601</v>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>GP</t>
+        </is>
+      </c>
+      <c r="F89" t="n">
+        <v>1.36239748781734</v>
+      </c>
+      <c r="G89" t="n">
+        <v>80.92544633162827</v>
+      </c>
+      <c r="H89" t="n">
+        <v>1800.363048290252</v>
+      </c>
+      <c r="I89" t="n">
+        <v>40</v>
+      </c>
+      <c r="J89" t="n">
+        <v>0</v>
+      </c>
+      <c r="K89" t="n">
+        <v>0</v>
+      </c>
+      <c r="L89" t="n">
+        <v>0</v>
+      </c>
+      <c r="M89" t="n">
+        <v>0.001998688383252267</v>
+      </c>
+      <c r="N89" t="n">
+        <v>0.03850521348651426</v>
+      </c>
+      <c r="O89" t="n">
+        <v>0.1258644742080395</v>
+      </c>
+      <c r="P89" t="n">
+        <v>0.3043515857408942</v>
+      </c>
+      <c r="Q89" t="n">
+        <v>0.6503001541461649</v>
+      </c>
+      <c r="R89" t="n">
+        <v>1.299495161338214</v>
+      </c>
+      <c r="S89" t="n">
+        <v>2.465539088316788</v>
+      </c>
+      <c r="T89" t="n">
+        <v>4.455310104843678</v>
+      </c>
+      <c r="U89" t="n">
+        <v>7.622557926540845</v>
+      </c>
+      <c r="V89" t="n">
+        <v>12.19034480993261</v>
+      </c>
+      <c r="W89" t="n">
+        <v>17.94032376805663</v>
+      </c>
+      <c r="X89" t="n">
+        <v>23.77744978223905</v>
+      </c>
+      <c r="Y89" t="n">
+        <v>25.90864312119964</v>
+      </c>
+      <c r="Z89" t="n">
+        <v>25.90864312119964</v>
+      </c>
+      <c r="AA89" t="n">
+        <v>25.90864312119964</v>
+      </c>
+      <c r="AB89" t="n">
+        <v>25.90864312119964</v>
+      </c>
+      <c r="AC89" t="n">
+        <v>25.90864312119964</v>
+      </c>
+      <c r="AD89" t="n">
+        <v>25.90864312119964</v>
+      </c>
+      <c r="AE89" t="n">
+        <v>25.90864312119964</v>
+      </c>
+      <c r="AF89" t="n">
+        <v>25.90864312119964</v>
+      </c>
+      <c r="AG89" t="n">
+        <v>25.90864312119964</v>
+      </c>
+      <c r="AH89" t="n">
+        <v>25.90864312119964</v>
+      </c>
+      <c r="AI89" t="n">
+        <v>25.90864312119964</v>
+      </c>
+      <c r="AJ89" t="n">
+        <v>25.90864312119964</v>
+      </c>
+      <c r="AK89" t="n">
+        <v>25.90864312119964</v>
+      </c>
+      <c r="AL89" t="n">
+        <v>25.90864312119964</v>
+      </c>
+      <c r="AM89" t="n">
+        <v>25.90864312119964</v>
+      </c>
+      <c r="AN89" t="n">
+        <v>25.90864312119964</v>
+      </c>
+      <c r="AO89" t="n">
+        <v>25.90864312119964</v>
+      </c>
+      <c r="AP89" t="n">
+        <v>25.9441653018621</v>
+      </c>
+      <c r="AQ89" t="n">
+        <v>26.40670419962278</v>
+      </c>
+      <c r="AR89" t="n">
+        <v>27.55337262829098</v>
+      </c>
+      <c r="AS89" t="n">
+        <v>30.03679633559552</v>
+      </c>
+      <c r="AT89" t="n">
+        <v>34.49061309061888</v>
+      </c>
+      <c r="AU89" t="n">
+        <v>43.08601664228424</v>
+      </c>
+      <c r="AV89" t="n">
+        <v>55.92190258869972</v>
+      </c>
+      <c r="AW89" t="n">
+        <v>73.04765573331188</v>
+      </c>
+      <c r="AX89" t="n">
+        <v>91.82547140092613</v>
+      </c>
+      <c r="AY89" t="n">
+        <v>100</v>
+      </c>
+      <c r="AZ89" t="n">
+        <v>100</v>
+      </c>
+      <c r="BA89" t="n">
+        <v>100</v>
+      </c>
+      <c r="BB89" t="n">
+        <v>100</v>
+      </c>
+      <c r="BC89" t="n">
+        <v>100</v>
+      </c>
+      <c r="BD89" t="n">
+        <v>100</v>
+      </c>
+      <c r="BE89" t="n">
+        <v>100</v>
+      </c>
+      <c r="BF89" t="n">
+        <v>100</v>
+      </c>
+      <c r="BG89" t="n">
+        <v>100</v>
+      </c>
+      <c r="BH89" t="n">
+        <v>3.489592143135528</v>
+      </c>
+      <c r="BI89" t="n">
+        <v>3.645848507716883</v>
+      </c>
+      <c r="BJ89" t="n">
+        <v>4.230524607450164</v>
+      </c>
+      <c r="BK89" t="n">
+        <v>4.672098525278775</v>
+      </c>
+      <c r="BL89" t="n">
+        <v>43.95454767369426</v>
+      </c>
+      <c r="BM89" t="n">
+        <v>52.86288522420909</v>
+      </c>
+      <c r="BN89" t="n">
+        <v>58.18301972938069</v>
+      </c>
+      <c r="BO89" t="n">
+        <v>62.46162614026564</v>
+      </c>
+      <c r="BP89" t="n">
+        <v>66.53959456082387</v>
+      </c>
+      <c r="BQ89" t="n">
+        <v>68.56168639767395</v>
+      </c>
+      <c r="BR89" t="n">
+        <v>70.48434483223188</v>
+      </c>
+      <c r="BS89" t="n">
+        <v>74.52442962850937</v>
+      </c>
+      <c r="BT89" t="n">
+        <v>65.48927863973248</v>
+      </c>
+      <c r="BU89" t="n">
+        <v>83.24826425272678</v>
+      </c>
+      <c r="BV89" t="n">
+        <v>10</v>
+      </c>
+      <c r="BW89" t="n">
+        <v>7.452442962850936</v>
+      </c>
+      <c r="BX89" t="n">
+        <v>9.110212913715761</v>
+      </c>
+      <c r="BY89" t="n">
+        <v>11.13674800960614</v>
+      </c>
+      <c r="BZ89" t="n">
+        <v>13.61407877117106</v>
+      </c>
+      <c r="CA89" t="n">
+        <v>16.64248312234242</v>
+      </c>
+      <c r="CB89" t="n">
+        <v>20.34454546156761</v>
+      </c>
+      <c r="CC89" t="n">
+        <v>24.87011865928424</v>
+      </c>
+      <c r="CD89" t="n">
+        <v>30.40238983443079</v>
+      </c>
+      <c r="CE89" t="n">
+        <v>37.16529544179112</v>
+      </c>
+      <c r="CF89" t="n">
+        <v>45.43258581966276</v>
+      </c>
+      <c r="CG89" t="n">
+        <v>55.53890611454654</v>
+      </c>
+      <c r="CH89" t="n">
+        <v>67.89334211889486</v>
+      </c>
+      <c r="CI89" t="n">
+        <v>82.99597933323356</v>
+      </c>
+      <c r="CJ89" t="n">
+        <v>101.4581455339123</v>
+      </c>
+      <c r="CK89" t="n">
+        <v>124.0271562294664</v>
+      </c>
+      <c r="CL89" t="n">
+        <v>151.6165646574607</v>
+      </c>
+      <c r="CM89" t="n">
+        <v>5.2549472736453</v>
+      </c>
+      <c r="CN89" t="n">
+        <v>1.644659300018954</v>
+      </c>
+      <c r="CO89" t="n">
+        <v>5.42361792355543</v>
+      </c>
+      <c r="CP89" t="n">
+        <v>9.31845181694667</v>
+      </c>
+      <c r="CQ89" t="n">
+        <v>12.75816983301324</v>
+      </c>
+      <c r="CR89" t="n">
+        <v>2.931700800303339</v>
+      </c>
+      <c r="CS89" t="n">
+        <v>10.28901617445912</v>
+      </c>
+      <c r="CT89" t="n">
+        <v>8.174528599073867</v>
+      </c>
+      <c r="CU89" t="n">
+        <v>19.14113293353803</v>
+      </c>
+      <c r="CV89" t="n">
+        <v>11.24973487746296</v>
+      </c>
+      <c r="CW89" t="n">
+        <v>7.23869903637474</v>
+      </c>
+      <c r="CX89" t="n">
+        <v>7.221880887397489</v>
+      </c>
+      <c r="CY89" t="n">
+        <v>7.602237192926097</v>
+      </c>
+      <c r="CZ89" t="n">
+        <v>2.540979076968796</v>
+      </c>
+      <c r="DA89" t="n">
+        <v>4.437161602683148</v>
+      </c>
+      <c r="DB89" t="n">
+        <v>3.300176882450508</v>
+      </c>
+      <c r="DC89" t="n">
+        <v>1.993043032236749</v>
+      </c>
+      <c r="DD89" t="n">
+        <v>1.894899117326432</v>
+      </c>
+      <c r="DE89" t="n">
+        <v>1.697622390845567</v>
+      </c>
+      <c r="DF89" t="n">
+        <v>75.38610460589986</v>
+      </c>
+      <c r="DG89" t="n">
+        <v>134.8532223359455</v>
+      </c>
+      <c r="DH89" t="n">
+        <v>0.8687181673876695</v>
+      </c>
+      <c r="DI89" t="n">
+        <v>0.6173249909100371</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="n">
+        <v>1.417100067175128</v>
+      </c>
+      <c r="C90" t="n">
+        <v>1.03551218406291</v>
+      </c>
+      <c r="D90" t="n">
+        <v>1.137585484304663</v>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>SP</t>
+        </is>
+      </c>
+      <c r="F90" t="n">
+        <v>1.264821707747626</v>
+      </c>
+      <c r="G90" t="n">
+        <v>3.618927965471105</v>
+      </c>
+      <c r="H90" t="n">
+        <v>1800.002705874474</v>
+      </c>
+      <c r="I90" t="n">
+        <v>10</v>
+      </c>
+      <c r="J90" t="n">
+        <v>0</v>
+      </c>
+      <c r="K90" t="n">
+        <v>0</v>
+      </c>
+      <c r="L90" t="n">
+        <v>0</v>
+      </c>
+      <c r="M90" t="n">
+        <v>0.2262699846608353</v>
+      </c>
+      <c r="N90" t="n">
+        <v>0.9279649436240227</v>
+      </c>
+      <c r="O90" t="n">
+        <v>2.450418750974385</v>
+      </c>
+      <c r="P90" t="n">
+        <v>5.504136890426971</v>
+      </c>
+      <c r="Q90" t="n">
+        <v>11.24238726368892</v>
+      </c>
+      <c r="R90" t="n">
+        <v>21.25239290188805</v>
+      </c>
+      <c r="S90" t="n">
+        <v>37.03774016808622</v>
+      </c>
+      <c r="T90" t="n">
+        <v>58.73831100836631</v>
+      </c>
+      <c r="U90" t="n">
+        <v>83.21457795774273</v>
+      </c>
+      <c r="V90" t="n">
+        <v>100</v>
+      </c>
+      <c r="W90" t="n">
+        <v>100</v>
+      </c>
+      <c r="X90" t="n">
+        <v>100</v>
+      </c>
+      <c r="Y90" t="n">
+        <v>100</v>
+      </c>
+      <c r="Z90" t="n">
+        <v>100</v>
+      </c>
+      <c r="AA90" t="n">
+        <v>100</v>
+      </c>
+      <c r="AB90" t="n">
+        <v>100</v>
+      </c>
+      <c r="AC90" t="n">
+        <v>100</v>
+      </c>
+      <c r="AD90" t="n">
+        <v>100</v>
+      </c>
+      <c r="AE90" t="n">
+        <v>100</v>
+      </c>
+      <c r="AF90" t="n">
+        <v>100</v>
+      </c>
+      <c r="AG90" t="n">
+        <v>100</v>
+      </c>
+      <c r="AH90" t="n">
+        <v>100</v>
+      </c>
+      <c r="AI90" t="n">
+        <v>100</v>
+      </c>
+      <c r="AJ90" t="n">
+        <v>100</v>
+      </c>
+      <c r="AK90" t="n">
+        <v>100</v>
+      </c>
+      <c r="AL90" t="n">
+        <v>100</v>
+      </c>
+      <c r="AM90" t="n">
+        <v>100</v>
+      </c>
+      <c r="AN90" t="n">
+        <v>100</v>
+      </c>
+      <c r="AO90" t="n">
+        <v>100</v>
+      </c>
+      <c r="AP90" t="n">
+        <v>100</v>
+      </c>
+      <c r="AQ90" t="n">
+        <v>100</v>
+      </c>
+      <c r="AR90" t="n">
+        <v>100</v>
+      </c>
+      <c r="AS90" t="n">
+        <v>100</v>
+      </c>
+      <c r="AT90" t="n">
+        <v>100</v>
+      </c>
+      <c r="AU90" t="n">
+        <v>100</v>
+      </c>
+      <c r="AV90" t="n">
+        <v>100</v>
+      </c>
+      <c r="AW90" t="n">
+        <v>100</v>
+      </c>
+      <c r="AX90" t="n">
+        <v>100</v>
+      </c>
+      <c r="AY90" t="n">
+        <v>100</v>
+      </c>
+      <c r="AZ90" t="n">
+        <v>100</v>
+      </c>
+      <c r="BA90" t="n">
+        <v>100</v>
+      </c>
+      <c r="BB90" t="n">
+        <v>100</v>
+      </c>
+      <c r="BC90" t="n">
+        <v>100</v>
+      </c>
+      <c r="BD90" t="n">
+        <v>100</v>
+      </c>
+      <c r="BE90" t="n">
+        <v>100</v>
+      </c>
+      <c r="BF90" t="n">
+        <v>100</v>
+      </c>
+      <c r="BG90" t="n">
+        <v>100</v>
+      </c>
+      <c r="BH90" t="n">
+        <v>2.092459362636494</v>
+      </c>
+      <c r="BI90" t="n">
+        <v>2.154140479225445</v>
+      </c>
+      <c r="BJ90" t="n">
+        <v>2.349262830325979</v>
+      </c>
+      <c r="BK90" t="n">
+        <v>2.447321016606183</v>
+      </c>
+      <c r="BL90" t="n">
+        <v>2.534748637710955</v>
+      </c>
+      <c r="BM90" t="n">
+        <v>2.690405984436559</v>
+      </c>
+      <c r="BN90" t="n">
+        <v>2.83115270270815</v>
+      </c>
+      <c r="BO90" t="n">
+        <v>2.965224303353401</v>
+      </c>
+      <c r="BP90" t="n">
+        <v>3.098683036811372</v>
+      </c>
+      <c r="BQ90" t="n">
+        <v>3.16707992417007</v>
+      </c>
+      <c r="BR90" t="n">
+        <v>3.237799051923685</v>
+      </c>
+      <c r="BS90" t="n">
+        <v>3.39314646769009</v>
+      </c>
+      <c r="BT90" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="BU90" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="BV90" t="n">
+        <v>10</v>
+      </c>
+      <c r="BW90" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="BX90" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="BY90" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="BZ90" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="CA90" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="CB90" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="CC90" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="CD90" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="CE90" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="CF90" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="CG90" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="CH90" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="CI90" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="CJ90" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="CK90" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="CL90" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="CM90" t="n">
+        <v>0.913912310803731</v>
+      </c>
+      <c r="CN90" t="n">
+        <v>1.088167046415599</v>
+      </c>
+      <c r="CO90" t="n">
+        <v>0.1653897147401864</v>
+      </c>
+      <c r="CP90" t="n">
+        <v>0.2876483081074541</v>
+      </c>
+      <c r="CQ90" t="n">
+        <v>0.685742734842286</v>
+      </c>
+      <c r="CR90" t="n">
+        <v>0.6234663538614313</v>
+      </c>
+      <c r="CS90" t="n">
+        <v>0.4178804793347837</v>
+      </c>
+      <c r="CT90" t="n">
+        <v>0.9954389756291491</v>
+      </c>
+      <c r="CU90" t="n">
+        <v>1.273173262343221</v>
+      </c>
+      <c r="CV90" t="n">
+        <v>0.3844599413221488</v>
+      </c>
+      <c r="CW90" t="n">
+        <v>0.736631846458252</v>
+      </c>
+      <c r="CX90" t="n">
+        <v>0.3790181232179179</v>
+      </c>
+      <c r="CY90" t="n">
+        <v>0.3064776482748641</v>
+      </c>
+      <c r="CZ90" t="n">
+        <v>0.6984715482248305</v>
+      </c>
+      <c r="DA90" t="n">
+        <v>0.926578689955619</v>
+      </c>
+      <c r="DB90" t="n">
+        <v>0.8699184865503611</v>
+      </c>
+      <c r="DC90" t="n">
+        <v>0.2769177678251395</v>
+      </c>
+      <c r="DD90" t="n">
+        <v>1.147124073320725</v>
+      </c>
+      <c r="DE90" t="n">
+        <v>0.6903962002801123</v>
+      </c>
+      <c r="DF90" t="n">
+        <v>0.09767884844889166</v>
+      </c>
+      <c r="DG90" t="n">
+        <v>0.07143132334565921</v>
+      </c>
+      <c r="DH90" t="n">
+        <v>3.071289278732319</v>
+      </c>
+      <c r="DI90" t="n">
+        <v>0.6999730322515219</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="n">
+        <v>6.630469813521272</v>
+      </c>
+      <c r="C91" t="n">
+        <v>0.2686686124787457</v>
+      </c>
+      <c r="D91" t="n">
+        <v>2.452808846972328</v>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>GP</t>
+        </is>
+      </c>
+      <c r="F91" t="n">
+        <v>4.005368463914563</v>
+      </c>
+      <c r="G91" t="n">
+        <v>145.8053134898343</v>
+      </c>
+      <c r="H91" t="n">
+        <v>1800.265407202189</v>
+      </c>
+      <c r="I91" t="n">
+        <v>140</v>
+      </c>
+      <c r="J91" t="n">
+        <v>0</v>
+      </c>
+      <c r="K91" t="n">
+        <v>0</v>
+      </c>
+      <c r="L91" t="n">
+        <v>0</v>
+      </c>
+      <c r="M91" t="n">
+        <v>0</v>
+      </c>
+      <c r="N91" t="n">
+        <v>0</v>
+      </c>
+      <c r="O91" t="n">
+        <v>0</v>
+      </c>
+      <c r="P91" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q91" t="n">
+        <v>0</v>
+      </c>
+      <c r="R91" t="n">
+        <v>0</v>
+      </c>
+      <c r="S91" t="n">
+        <v>0</v>
+      </c>
+      <c r="T91" t="n">
+        <v>0</v>
+      </c>
+      <c r="U91" t="n">
+        <v>0</v>
+      </c>
+      <c r="V91" t="n">
+        <v>0</v>
+      </c>
+      <c r="W91" t="n">
+        <v>4.952624276396268e-06</v>
+      </c>
+      <c r="X91" t="n">
+        <v>1.672874557773047e-05</v>
+      </c>
+      <c r="Y91" t="n">
+        <v>2.400568885902232e-05</v>
+      </c>
+      <c r="Z91" t="n">
+        <v>5.051285433068337e-05</v>
+      </c>
+      <c r="AA91" t="n">
+        <v>6.601011170107057e-05</v>
+      </c>
+      <c r="AB91" t="n">
+        <v>8.547806941871729e-05</v>
+      </c>
+      <c r="AC91" t="n">
+        <v>0.0001408814549100966</v>
+      </c>
+      <c r="AD91" t="n">
+        <v>0.0603046118106085</v>
+      </c>
+      <c r="AE91" t="n">
+        <v>0.3066974133026469</v>
+      </c>
+      <c r="AF91" t="n">
+        <v>0.8757085293727481</v>
+      </c>
+      <c r="AG91" t="n">
+        <v>2.040567413105323</v>
+      </c>
+      <c r="AH91" t="n">
+        <v>4.243780738274687</v>
+      </c>
+      <c r="AI91" t="n">
+        <v>8.090097090059444</v>
+      </c>
+      <c r="AJ91" t="n">
+        <v>14.03548868061981</v>
+      </c>
+      <c r="AK91" t="n">
+        <v>21.77032617289681</v>
+      </c>
+      <c r="AL91" t="n">
+        <v>29.76762596666335</v>
+      </c>
+      <c r="AM91" t="n">
+        <v>32.70948945118356</v>
+      </c>
+      <c r="AN91" t="n">
+        <v>32.72556291982825</v>
+      </c>
+      <c r="AO91" t="n">
+        <v>32.74634558474004</v>
+      </c>
+      <c r="AP91" t="n">
+        <v>32.78371018150677</v>
+      </c>
+      <c r="AQ91" t="n">
+        <v>32.85057042522362</v>
+      </c>
+      <c r="AR91" t="n">
+        <v>32.95807581274402</v>
+      </c>
+      <c r="AS91" t="n">
+        <v>33.13905017362131</v>
+      </c>
+      <c r="AT91" t="n">
+        <v>33.46550999803821</v>
+      </c>
+      <c r="AU91" t="n">
+        <v>34.07501458574437</v>
+      </c>
+      <c r="AV91" t="n">
+        <v>35.21672993664575</v>
+      </c>
+      <c r="AW91" t="n">
+        <v>36.98937606533362</v>
+      </c>
+      <c r="AX91" t="n">
+        <v>39.92231753960322</v>
+      </c>
+      <c r="AY91" t="n">
+        <v>43.77362150570517</v>
+      </c>
+      <c r="AZ91" t="n">
+        <v>52.28089180577089</v>
+      </c>
+      <c r="BA91" t="n">
+        <v>60.8273084987664</v>
+      </c>
+      <c r="BB91" t="n">
+        <v>75.28322110860005</v>
+      </c>
+      <c r="BC91" t="n">
+        <v>88.52492647293744</v>
+      </c>
+      <c r="BD91" t="n">
+        <v>99.05891110219231</v>
+      </c>
+      <c r="BE91" t="n">
+        <v>100</v>
+      </c>
+      <c r="BF91" t="n">
+        <v>100</v>
+      </c>
+      <c r="BG91" t="n">
+        <v>100</v>
+      </c>
+      <c r="BH91" t="n">
+        <v>15.53038463518547</v>
+      </c>
+      <c r="BI91" t="n">
+        <v>16.10092789581595</v>
+      </c>
+      <c r="BJ91" t="n">
+        <v>18.10081408792611</v>
+      </c>
+      <c r="BK91" t="n">
+        <v>19.32587822743583</v>
+      </c>
+      <c r="BL91" t="n">
+        <v>20.72825912673675</v>
+      </c>
+      <c r="BM91" t="n">
+        <v>75.91673332641143</v>
+      </c>
+      <c r="BN91" t="n">
+        <v>91.59670725662524</v>
+      </c>
+      <c r="BO91" t="n">
+        <v>102.9737465159718</v>
+      </c>
+      <c r="BP91" t="n">
+        <v>112.0814446774511</v>
+      </c>
+      <c r="BQ91" t="n">
+        <v>116.2697253633232</v>
+      </c>
+      <c r="BR91" t="n">
+        <v>120.5069821904581</v>
+      </c>
+      <c r="BS91" t="n">
+        <v>131.3487228757383</v>
+      </c>
+      <c r="BT91" t="n">
+        <v>212.5918944186886</v>
+      </c>
+      <c r="BU91" t="n">
+        <v>486.9001742725813</v>
+      </c>
+      <c r="BV91" t="n">
+        <v>10</v>
+      </c>
+      <c r="BW91" t="n">
+        <v>13.13487228757383</v>
+      </c>
+      <c r="BX91" t="n">
+        <v>16.99293670932435</v>
+      </c>
+      <c r="BY91" t="n">
+        <v>21.98421817015173</v>
+      </c>
+      <c r="BZ91" t="n">
+        <v>28.44157292056708</v>
+      </c>
+      <c r="CA91" t="n">
+        <v>36.79562602295405</v>
+      </c>
+      <c r="CB91" t="n">
+        <v>47.60348867491884</v>
+      </c>
+      <c r="CC91" t="n">
+        <v>61.58591058104243</v>
+      </c>
+      <c r="CD91" t="n">
+        <v>79.67534497307767</v>
+      </c>
+      <c r="CE91" t="n">
+        <v>103.0781316162441</v>
+      </c>
+      <c r="CF91" t="n">
+        <v>133.3549446329473</v>
+      </c>
+      <c r="CG91" t="n">
+        <v>172.5248700108754</v>
+      </c>
+      <c r="CH91" t="n">
+        <v>223.200053467801</v>
+      </c>
+      <c r="CI91" t="n">
+        <v>288.7598980071038</v>
+      </c>
+      <c r="CJ91" t="n">
+        <v>373.5764279693677</v>
+      </c>
+      <c r="CK91" t="n">
+        <v>483.3058485528308</v>
+      </c>
+      <c r="CL91" t="n">
+        <v>625.2657441880276</v>
+      </c>
+      <c r="CM91" t="n">
+        <v>6.387534684562283</v>
+      </c>
+      <c r="CN91" t="n">
+        <v>1.987817315913944</v>
+      </c>
+      <c r="CO91" t="n">
+        <v>42.17096833720036</v>
+      </c>
+      <c r="CP91" t="n">
+        <v>39.26756062276919</v>
+      </c>
+      <c r="CQ91" t="n">
+        <v>60.07768246039678</v>
+      </c>
+      <c r="CR91" t="n">
+        <v>26.24848418650354</v>
+      </c>
+      <c r="CS91" t="n">
+        <v>39.1726915012336</v>
+      </c>
+      <c r="CT91" t="n">
+        <v>11.38434428032686</v>
+      </c>
+      <c r="CU91" t="n">
+        <v>19.06605704349322</v>
+      </c>
+      <c r="CV91" t="n">
+        <v>7.30025558580391</v>
+      </c>
+      <c r="CW91" t="n">
+        <v>13.22602356812442</v>
+      </c>
+      <c r="CX91" t="n">
+        <v>4.092952726327852</v>
+      </c>
+      <c r="CY91" t="n">
+        <v>7.677413507958875</v>
+      </c>
+      <c r="CZ91" t="n">
+        <v>5.344524595541898</v>
+      </c>
+      <c r="DA91" t="n">
+        <v>4.736733115089308</v>
+      </c>
+      <c r="DB91" t="n">
+        <v>8.748806475434165</v>
+      </c>
+      <c r="DC91" t="n">
+        <v>6.499001799499808</v>
+      </c>
+      <c r="DD91" t="n">
+        <v>4.270334540291714</v>
+      </c>
+      <c r="DE91" t="n">
+        <v>1.805710370565023</v>
+      </c>
+      <c r="DF91" t="n">
+        <v>255.2622146706916</v>
+      </c>
+      <c r="DG91" t="n">
+        <v>538.0486477581965</v>
+      </c>
+      <c r="DH91" t="n">
+        <v>0.8328373029786211</v>
+      </c>
+      <c r="DI91" t="n">
+        <v>0.904937083851567</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="n">
+        <v>9.080175548369812</v>
+      </c>
+      <c r="C92" t="n">
+        <v>2.299430544235145</v>
+      </c>
+      <c r="D92" t="n">
+        <v>2.791094083308697</v>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>GW</t>
+        </is>
+      </c>
+      <c r="F92" t="n">
+        <v>1.022097520769113</v>
+      </c>
+      <c r="G92" t="n">
+        <v>103.0746369599658</v>
+      </c>
+      <c r="H92" t="n">
+        <v>1800.018716176359</v>
+      </c>
+      <c r="I92" t="n">
+        <v>30</v>
+      </c>
+      <c r="J92" t="n">
+        <v>0</v>
+      </c>
+      <c r="K92" t="n">
+        <v>0.003685501913619082</v>
+      </c>
+      <c r="L92" t="n">
+        <v>0.0143154530897839</v>
+      </c>
+      <c r="M92" t="n">
+        <v>0.03565184867179323</v>
+      </c>
+      <c r="N92" t="n">
+        <v>0.07607174955441953</v>
+      </c>
+      <c r="O92" t="n">
+        <v>0.1505895834041007</v>
+      </c>
+      <c r="P92" t="n">
+        <v>0.2862610579200571</v>
+      </c>
+      <c r="Q92" t="n">
+        <v>0.528979819457452</v>
+      </c>
+      <c r="R92" t="n">
+        <v>0.9586624326911433</v>
+      </c>
+      <c r="S92" t="n">
+        <v>1.702138049957137</v>
+      </c>
+      <c r="T92" t="n">
+        <v>2.950711549793209</v>
+      </c>
+      <c r="U92" t="n">
+        <v>4.974077858872476</v>
+      </c>
+      <c r="V92" t="n">
+        <v>8.077662335928173</v>
+      </c>
+      <c r="W92" t="n">
+        <v>12.49003332158241</v>
+      </c>
+      <c r="X92" t="n">
+        <v>18.14118850549347</v>
+      </c>
+      <c r="Y92" t="n">
+        <v>24.30594340645227</v>
+      </c>
+      <c r="Z92" t="n">
+        <v>28.16449112469142</v>
+      </c>
+      <c r="AA92" t="n">
+        <v>28.16938133564672</v>
+      </c>
+      <c r="AB92" t="n">
+        <v>28.17796620344218</v>
+      </c>
+      <c r="AC92" t="n">
+        <v>28.19271673545832</v>
+      </c>
+      <c r="AD92" t="n">
+        <v>28.21787412300952</v>
+      </c>
+      <c r="AE92" t="n">
+        <v>28.26245061642009</v>
+      </c>
+      <c r="AF92" t="n">
+        <v>28.33158912480575</v>
+      </c>
+      <c r="AG92" t="n">
+        <v>28.45331235884944</v>
+      </c>
+      <c r="AH92" t="n">
+        <v>28.65338844980284</v>
+      </c>
+      <c r="AI92" t="n">
+        <v>28.98870277005464</v>
+      </c>
+      <c r="AJ92" t="n">
+        <v>29.55235779570825</v>
+      </c>
+      <c r="AK92" t="n">
+        <v>30.49596226585763</v>
+      </c>
+      <c r="AL92" t="n">
+        <v>32.0599166974736</v>
+      </c>
+      <c r="AM92" t="n">
+        <v>34.4194033567664</v>
+      </c>
+      <c r="AN92" t="n">
+        <v>38.07067300588813</v>
+      </c>
+      <c r="AO92" t="n">
+        <v>43.51283849375614</v>
+      </c>
+      <c r="AP92" t="n">
+        <v>51.33161004111142</v>
+      </c>
+      <c r="AQ92" t="n">
+        <v>61.42923269231622</v>
+      </c>
+      <c r="AR92" t="n">
+        <v>73.68353472042305</v>
+      </c>
+      <c r="AS92" t="n">
+        <v>83.21826350567333</v>
+      </c>
+      <c r="AT92" t="n">
+        <v>91.70587267372186</v>
+      </c>
+      <c r="AU92" t="n">
+        <v>95.13270245120151</v>
+      </c>
+      <c r="AV92" t="n">
+        <v>95.64221497832727</v>
+      </c>
+      <c r="AW92" t="n">
+        <v>96.1011090863163</v>
+      </c>
+      <c r="AX92" t="n">
+        <v>96.8740707528096</v>
+      </c>
+      <c r="AY92" t="n">
+        <v>98.14443127763889</v>
+      </c>
+      <c r="AZ92" t="n">
+        <v>99.08015957235598</v>
+      </c>
+      <c r="BA92" t="n">
+        <v>100</v>
+      </c>
+      <c r="BB92" t="n">
+        <v>100</v>
+      </c>
+      <c r="BC92" t="n">
+        <v>100</v>
+      </c>
+      <c r="BD92" t="n">
+        <v>100</v>
+      </c>
+      <c r="BE92" t="n">
+        <v>100</v>
+      </c>
+      <c r="BF92" t="n">
+        <v>100</v>
+      </c>
+      <c r="BG92" t="n">
+        <v>100</v>
+      </c>
+      <c r="BH92" t="n">
+        <v>3.852601288393916</v>
+      </c>
+      <c r="BI92" t="n">
+        <v>4.035485513992714</v>
+      </c>
+      <c r="BJ92" t="n">
+        <v>4.694120621647507</v>
+      </c>
+      <c r="BK92" t="n">
+        <v>5.12821944825888</v>
+      </c>
+      <c r="BL92" t="n">
+        <v>17.60399903003637</v>
+      </c>
+      <c r="BM92" t="n">
+        <v>26.75952103986455</v>
+      </c>
+      <c r="BN92" t="n">
+        <v>31.36335862110452</v>
+      </c>
+      <c r="BO92" t="n">
+        <v>34.98229601649247</v>
+      </c>
+      <c r="BP92" t="n">
+        <v>38.23464874044355</v>
+      </c>
+      <c r="BQ92" t="n">
+        <v>39.94988684786777</v>
+      </c>
+      <c r="BR92" t="n">
+        <v>42.25353474632512</v>
+      </c>
+      <c r="BS92" t="n">
+        <v>47.90948835924673</v>
+      </c>
+      <c r="BT92" t="n">
+        <v>106.2438078442875</v>
+      </c>
+      <c r="BU92" t="n">
+        <v>172.0185642690221</v>
+      </c>
+      <c r="BV92" t="n">
+        <v>10</v>
+      </c>
+      <c r="BW92" t="n">
+        <v>4.790948835924673</v>
+      </c>
+      <c r="BX92" t="n">
+        <v>5.603555609364851</v>
+      </c>
+      <c r="BY92" t="n">
+        <v>6.553990982286078</v>
+      </c>
+      <c r="BZ92" t="n">
+        <v>7.665632464519443</v>
+      </c>
+      <c r="CA92" t="n">
+        <v>8.965822693365663</v>
+      </c>
+      <c r="CB92" t="n">
+        <v>10.48654197040349</v>
+      </c>
+      <c r="CC92" t="n">
+        <v>12.26519486922326</v>
+      </c>
+      <c r="CD92" t="n">
+        <v>14.34553026198704</v>
+      </c>
+      <c r="CE92" t="n">
+        <v>16.77871739437098</v>
+      </c>
+      <c r="CF92" t="n">
+        <v>19.62460447670983</v>
+      </c>
+      <c r="CG92" t="n">
+        <v>22.95319074844801</v>
+      </c>
+      <c r="CH92" t="n">
+        <v>26.84634822372574</v>
+      </c>
+      <c r="CI92" t="n">
+        <v>31.39983546724433</v>
+      </c>
+      <c r="CJ92" t="n">
+        <v>36.72565293251586</v>
+      </c>
+      <c r="CK92" t="n">
+        <v>42.95479779588729</v>
+      </c>
+      <c r="CL92" t="n">
+        <v>50.24048604597991</v>
+      </c>
+      <c r="CM92" t="n">
+        <v>1.226584100560395</v>
+      </c>
+      <c r="CN92" t="n">
+        <v>2.056878081768872</v>
+      </c>
+      <c r="CO92" t="n">
+        <v>8.294127326278144</v>
+      </c>
+      <c r="CP92" t="n">
+        <v>20.32268742370437</v>
+      </c>
+      <c r="CQ92" t="n">
+        <v>6.350024221039433</v>
+      </c>
+      <c r="CR92" t="n">
+        <v>3.898890913683701</v>
+      </c>
+      <c r="CS92" t="n">
+        <v>6.159304910204334</v>
+      </c>
+      <c r="CT92" t="n">
+        <v>11.43207562131475</v>
+      </c>
+      <c r="CU92" t="n">
+        <v>5.664442323279317</v>
+      </c>
+      <c r="CV92" t="n">
+        <v>12.24733229590438</v>
+      </c>
+      <c r="CW92" t="n">
+        <v>7.066027494635463</v>
+      </c>
+      <c r="CX92" t="n">
+        <v>4.494859339812635</v>
+      </c>
+      <c r="CY92" t="n">
+        <v>4.86729754879849</v>
+      </c>
+      <c r="CZ92" t="n">
+        <v>3.460909752983994</v>
+      </c>
+      <c r="DA92" t="n">
+        <v>6.168088606587574</v>
+      </c>
+      <c r="DB92" t="n">
+        <v>6.71376596153668</v>
+      </c>
+      <c r="DC92" t="n">
+        <v>2.167156386214472</v>
+      </c>
+      <c r="DD92" t="n">
+        <v>4.148857760301411</v>
+      </c>
+      <c r="DE92" t="n">
+        <v>2.973280511115476</v>
+      </c>
+      <c r="DF92" t="n">
+        <v>29.13055227059945</v>
+      </c>
+      <c r="DG92" t="n">
+        <v>45.85235147195058</v>
+      </c>
+      <c r="DH92" t="n">
+        <v>3.647160783543264</v>
+      </c>
+      <c r="DI92" t="n">
+        <v>3.751575628007904</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="n">
+        <v>1.613543399423989</v>
+      </c>
+      <c r="C93" t="n">
+        <v>1.070621932286585</v>
+      </c>
+      <c r="D93" t="n">
+        <v>1.206568803943193</v>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>GP</t>
+        </is>
+      </c>
+      <c r="F93" t="n">
+        <v>2.26257553524557</v>
+      </c>
+      <c r="G93" t="n">
+        <v>197.623583960791</v>
+      </c>
+      <c r="H93" t="n">
+        <v>1800.06280655618</v>
+      </c>
+      <c r="I93" t="n">
+        <v>170</v>
+      </c>
+      <c r="J93" t="n">
+        <v>0</v>
+      </c>
+      <c r="K93" t="n">
+        <v>0</v>
+      </c>
+      <c r="L93" t="n">
+        <v>0</v>
+      </c>
+      <c r="M93" t="n">
+        <v>0</v>
+      </c>
+      <c r="N93" t="n">
+        <v>0</v>
+      </c>
+      <c r="O93" t="n">
+        <v>0</v>
+      </c>
+      <c r="P93" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q93" t="n">
+        <v>0</v>
+      </c>
+      <c r="R93" t="n">
+        <v>8.928244983141854e-07</v>
+      </c>
+      <c r="S93" t="n">
+        <v>8.928244983141854e-07</v>
+      </c>
+      <c r="T93" t="n">
+        <v>8.928244983141854e-07</v>
+      </c>
+      <c r="U93" t="n">
+        <v>8.928244983141854e-07</v>
+      </c>
+      <c r="V93" t="n">
+        <v>8.928244983141854e-07</v>
+      </c>
+      <c r="W93" t="n">
+        <v>8.928244983141854e-07</v>
+      </c>
+      <c r="X93" t="n">
+        <v>8.928244983141854e-07</v>
+      </c>
+      <c r="Y93" t="n">
+        <v>8.928244983141854e-07</v>
+      </c>
+      <c r="Z93" t="n">
+        <v>1.142954192610509e-05</v>
+      </c>
+      <c r="AA93" t="n">
+        <v>1.142954192610509e-05</v>
+      </c>
+      <c r="AB93" t="n">
+        <v>3.17730061376598e-05</v>
+      </c>
+      <c r="AC93" t="n">
+        <v>3.17730061376598e-05</v>
+      </c>
+      <c r="AD93" t="n">
+        <v>7.225953477160272e-05</v>
+      </c>
+      <c r="AE93" t="n">
+        <v>0.0001347317051031585</v>
+      </c>
+      <c r="AF93" t="n">
+        <v>0.00021317651099746</v>
+      </c>
+      <c r="AG93" t="n">
+        <v>0.00021317651099746</v>
+      </c>
+      <c r="AH93" t="n">
+        <v>0.0005394958528093271</v>
+      </c>
+      <c r="AI93" t="n">
+        <v>0.0005394958528093271</v>
+      </c>
+      <c r="AJ93" t="n">
+        <v>0.0008289563932019027</v>
+      </c>
+      <c r="AK93" t="n">
+        <v>0.00323859785018689</v>
+      </c>
+      <c r="AL93" t="n">
+        <v>0.007323188884741688</v>
+      </c>
+      <c r="AM93" t="n">
+        <v>0.01490204764484674</v>
+      </c>
+      <c r="AN93" t="n">
+        <v>0.02062251862958074</v>
+      </c>
+      <c r="AO93" t="n">
+        <v>0.04416387569057341</v>
+      </c>
+      <c r="AP93" t="n">
+        <v>0.06767774277833777</v>
+      </c>
+      <c r="AQ93" t="n">
+        <v>0.1285021316579778</v>
+      </c>
+      <c r="AR93" t="n">
+        <v>0.2212222566087367</v>
+      </c>
+      <c r="AS93" t="n">
+        <v>0.3992916251947499</v>
+      </c>
+      <c r="AT93" t="n">
+        <v>0.563900886604222</v>
+      </c>
+      <c r="AU93" t="n">
+        <v>0.9041214725146397</v>
+      </c>
+      <c r="AV93" t="n">
+        <v>1.622647370014861</v>
+      </c>
+      <c r="AW93" t="n">
+        <v>2.794355595804173</v>
+      </c>
+      <c r="AX93" t="n">
+        <v>4.614695234615761</v>
+      </c>
+      <c r="AY93" t="n">
+        <v>7.722810788387542</v>
+      </c>
+      <c r="AZ93" t="n">
+        <v>12.67878449946551</v>
+      </c>
+      <c r="BA93" t="n">
+        <v>19.93880974214593</v>
+      </c>
+      <c r="BB93" t="n">
+        <v>29.31827364669769</v>
+      </c>
+      <c r="BC93" t="n">
+        <v>44.17204641617909</v>
+      </c>
+      <c r="BD93" t="n">
+        <v>60.22388022268939</v>
+      </c>
+      <c r="BE93" t="n">
+        <v>73.65847256661307</v>
+      </c>
+      <c r="BF93" t="n">
+        <v>89.59689882829478</v>
+      </c>
+      <c r="BG93" t="n">
+        <v>100</v>
+      </c>
+      <c r="BH93" t="n">
+        <v>89.29200637497013</v>
+      </c>
+      <c r="BI93" t="n">
+        <v>92.8000843869558</v>
+      </c>
+      <c r="BJ93" t="n">
+        <v>104.5806123154133</v>
+      </c>
+      <c r="BK93" t="n">
+        <v>111.7631808992974</v>
+      </c>
+      <c r="BL93" t="n">
+        <v>117.3602362523071</v>
+      </c>
+      <c r="BM93" t="n">
+        <v>126.2412978880441</v>
+      </c>
+      <c r="BN93" t="n">
+        <v>134.2891032039515</v>
+      </c>
+      <c r="BO93" t="n">
+        <v>144.0765275076578</v>
+      </c>
+      <c r="BP93" t="n">
+        <v>156.3346771804279</v>
+      </c>
+      <c r="BQ93" t="n">
+        <v>162.7057640013324</v>
+      </c>
+      <c r="BR93" t="n">
+        <v>168.5925820438068</v>
+      </c>
+      <c r="BS93" t="n">
+        <v>179.7707349252626</v>
+      </c>
+      <c r="BT93" t="n">
+        <v>390.5508093750781</v>
+      </c>
+      <c r="BU93" t="n">
+        <v>1212.372816829919</v>
+      </c>
+      <c r="BV93" t="n">
+        <v>10</v>
+      </c>
+      <c r="BW93" t="n">
+        <v>17.97707349252626</v>
+      </c>
+      <c r="BX93" t="n">
+        <v>23.99887552961402</v>
+      </c>
+      <c r="BY93" t="n">
+        <v>32.0378078737537</v>
+      </c>
+      <c r="BZ93" t="n">
+        <v>42.7695511020496</v>
+      </c>
+      <c r="CA93" t="n">
+        <v>57.0961193312291</v>
+      </c>
+      <c r="CB93" t="n">
+        <v>76.22167543698463</v>
+      </c>
+      <c r="CC93" t="n">
+        <v>101.7537421889783</v>
+      </c>
+      <c r="CD93" t="n">
+        <v>135.8383162020751</v>
+      </c>
+      <c r="CE93" t="n">
+        <v>181.3402411711363</v>
+      </c>
+      <c r="CF93" t="n">
+        <v>242.084000946292</v>
+      </c>
+      <c r="CG93" t="n">
+        <v>323.1751713556911</v>
+      </c>
+      <c r="CH93" t="n">
+        <v>431.4295491338625</v>
+      </c>
+      <c r="CI93" t="n">
+        <v>575.9460266859082</v>
+      </c>
+      <c r="CJ93" t="n">
+        <v>768.8713634039052</v>
+      </c>
+      <c r="CK93" t="n">
+        <v>1026.421133355557</v>
+      </c>
+      <c r="CL93" t="n">
+        <v>1370.24266105416</v>
+      </c>
+      <c r="CM93" t="n">
+        <v>5.168227478093705</v>
+      </c>
+      <c r="CN93" t="n">
+        <v>3.34922298585991</v>
+      </c>
+      <c r="CO93" t="n">
+        <v>87.32121550053449</v>
+      </c>
+      <c r="CP93" t="n">
+        <v>26.34152743338693</v>
+      </c>
+      <c r="CQ93" t="n">
+        <v>26.59939766609641</v>
+      </c>
+      <c r="CR93" t="n">
+        <v>26.34152743338693</v>
+      </c>
+      <c r="CS93" t="n">
+        <v>26.34152743338693</v>
+      </c>
+      <c r="CT93" t="n">
+        <v>17.92174878233259</v>
+      </c>
+      <c r="CU93" t="n">
+        <v>13.16948216387085</v>
+      </c>
+      <c r="CV93" t="n">
+        <v>10.86603020678872</v>
+      </c>
+      <c r="CW93" t="n">
+        <v>7.90127225596315</v>
+      </c>
+      <c r="CX93" t="n">
+        <v>23.65016677758354</v>
+      </c>
+      <c r="CY93" t="n">
+        <v>18.66643706246145</v>
+      </c>
+      <c r="CZ93" t="n">
+        <v>4.710922812736939</v>
+      </c>
+      <c r="DA93" t="n">
+        <v>2.871826966129767</v>
+      </c>
+      <c r="DB93" t="n">
+        <v>5.357454990841759</v>
+      </c>
+      <c r="DC93" t="n">
+        <v>2.211714839281001</v>
+      </c>
+      <c r="DD93" t="n">
+        <v>2.379536955847257</v>
+      </c>
+      <c r="DE93" t="n">
+        <v>0.926180129641395</v>
+      </c>
+      <c r="DF93" t="n">
+        <v>501.5401550775317</v>
+      </c>
+      <c r="DG93" t="n">
+        <v>1157.720615283839</v>
+      </c>
+      <c r="DH93" t="n">
+        <v>0.7787029720774878</v>
+      </c>
+      <c r="DI93" t="n">
+        <v>1.04720672744752</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="n">
+        <v>1.403852217344418</v>
+      </c>
+      <c r="C94" t="n">
+        <v>1.033331384342244</v>
+      </c>
+      <c r="D94" t="n">
+        <v>1.134315529971257</v>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>GP</t>
+        </is>
+      </c>
+      <c r="F94" t="n">
+        <v>3.534711983998574</v>
+      </c>
+      <c r="G94" t="n">
+        <v>9.593114900457998</v>
+      </c>
+      <c r="H94" t="n">
+        <v>1800.019397905351</v>
+      </c>
+      <c r="I94" t="n">
+        <v>10</v>
+      </c>
+      <c r="J94" t="n">
+        <v>0</v>
+      </c>
+      <c r="K94" t="n">
+        <v>0</v>
+      </c>
+      <c r="L94" t="n">
+        <v>0</v>
+      </c>
+      <c r="M94" t="n">
+        <v>0</v>
+      </c>
+      <c r="N94" t="n">
+        <v>0</v>
+      </c>
+      <c r="O94" t="n">
+        <v>0</v>
+      </c>
+      <c r="P94" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q94" t="n">
+        <v>0</v>
+      </c>
+      <c r="R94" t="n">
+        <v>0</v>
+      </c>
+      <c r="S94" t="n">
+        <v>0</v>
+      </c>
+      <c r="T94" t="n">
+        <v>0</v>
+      </c>
+      <c r="U94" t="n">
+        <v>0</v>
+      </c>
+      <c r="V94" t="n">
+        <v>0.07222715155953183</v>
+      </c>
+      <c r="W94" t="n">
+        <v>0.648054682178866</v>
+      </c>
+      <c r="X94" t="n">
+        <v>2.008398394570921</v>
+      </c>
+      <c r="Y94" t="n">
+        <v>4.834829068200941</v>
+      </c>
+      <c r="Z94" t="n">
+        <v>10.31080160566544</v>
+      </c>
+      <c r="AA94" t="n">
+        <v>20.08917309475356</v>
+      </c>
+      <c r="AB94" t="n">
+        <v>35.77816660400111</v>
+      </c>
+      <c r="AC94" t="n">
+        <v>57.68989985672617</v>
+      </c>
+      <c r="AD94" t="n">
+        <v>82.57590007034551</v>
+      </c>
+      <c r="AE94" t="n">
+        <v>100</v>
+      </c>
+      <c r="AF94" t="n">
+        <v>100</v>
+      </c>
+      <c r="AG94" t="n">
+        <v>100</v>
+      </c>
+      <c r="AH94" t="n">
+        <v>100</v>
+      </c>
+      <c r="AI94" t="n">
+        <v>100</v>
+      </c>
+      <c r="AJ94" t="n">
+        <v>100</v>
+      </c>
+      <c r="AK94" t="n">
+        <v>100</v>
+      </c>
+      <c r="AL94" t="n">
+        <v>100</v>
+      </c>
+      <c r="AM94" t="n">
+        <v>100</v>
+      </c>
+      <c r="AN94" t="n">
+        <v>100</v>
+      </c>
+      <c r="AO94" t="n">
+        <v>100</v>
+      </c>
+      <c r="AP94" t="n">
+        <v>100</v>
+      </c>
+      <c r="AQ94" t="n">
+        <v>100</v>
+      </c>
+      <c r="AR94" t="n">
+        <v>100</v>
+      </c>
+      <c r="AS94" t="n">
+        <v>100</v>
+      </c>
+      <c r="AT94" t="n">
+        <v>100</v>
+      </c>
+      <c r="AU94" t="n">
+        <v>100</v>
+      </c>
+      <c r="AV94" t="n">
+        <v>100</v>
+      </c>
+      <c r="AW94" t="n">
+        <v>100</v>
+      </c>
+      <c r="AX94" t="n">
+        <v>100</v>
+      </c>
+      <c r="AY94" t="n">
+        <v>100</v>
+      </c>
+      <c r="AZ94" t="n">
+        <v>100</v>
+      </c>
+      <c r="BA94" t="n">
+        <v>100</v>
+      </c>
+      <c r="BB94" t="n">
+        <v>100</v>
+      </c>
+      <c r="BC94" t="n">
+        <v>100</v>
+      </c>
+      <c r="BD94" t="n">
+        <v>100</v>
+      </c>
+      <c r="BE94" t="n">
+        <v>100</v>
+      </c>
+      <c r="BF94" t="n">
+        <v>100</v>
+      </c>
+      <c r="BG94" t="n">
+        <v>100</v>
+      </c>
+      <c r="BH94" t="n">
+        <v>5.614741023220414</v>
+      </c>
+      <c r="BI94" t="n">
+        <v>5.774362716528509</v>
+      </c>
+      <c r="BJ94" t="n">
+        <v>6.280467418350272</v>
+      </c>
+      <c r="BK94" t="n">
+        <v>6.535332332939951</v>
+      </c>
+      <c r="BL94" t="n">
+        <v>6.762546051928984</v>
+      </c>
+      <c r="BM94" t="n">
+        <v>7.167190143440396</v>
+      </c>
+      <c r="BN94" t="n">
+        <v>7.533106277298069</v>
+      </c>
+      <c r="BO94" t="n">
+        <v>7.882266635262644</v>
+      </c>
+      <c r="BP94" t="n">
+        <v>8.230530229455237</v>
+      </c>
+      <c r="BQ94" t="n">
+        <v>8.408827303620486</v>
+      </c>
+      <c r="BR94" t="n">
+        <v>8.59381589913826</v>
+      </c>
+      <c r="BS94" t="n">
+        <v>9.001916688951509</v>
+      </c>
+      <c r="BT94" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="BU94" t="n">
+        <v>0.1664102456613341</v>
+      </c>
+      <c r="BV94" t="n">
+        <v>10</v>
+      </c>
+      <c r="BW94" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="BX94" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="BY94" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="BZ94" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="CA94" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="CB94" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="CC94" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="CD94" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="CE94" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="CF94" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="CG94" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="CH94" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="CI94" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="CJ94" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="CK94" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="CL94" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="CM94" t="n">
+        <v>2.582916580262335</v>
+      </c>
+      <c r="CN94" t="n">
+        <v>1.402558248402606</v>
+      </c>
+      <c r="CO94" t="n">
+        <v>0.5039829084463463</v>
+      </c>
+      <c r="CP94" t="n">
+        <v>2.355482282080487</v>
+      </c>
+      <c r="CQ94" t="n">
+        <v>2.121638758436717</v>
+      </c>
+      <c r="CR94" t="n">
+        <v>2.390839704301225</v>
+      </c>
+      <c r="CS94" t="n">
+        <v>1.870927201539713</v>
+      </c>
+      <c r="CT94" t="n">
+        <v>2.601326699915106</v>
+      </c>
+      <c r="CU94" t="n">
+        <v>2.637751753881616</v>
+      </c>
+      <c r="CV94" t="n">
+        <v>2.160747145994144</v>
+      </c>
+      <c r="CW94" t="n">
+        <v>1.794454753199915</v>
+      </c>
+      <c r="CX94" t="n">
+        <v>2.150018574138166</v>
+      </c>
+      <c r="CY94" t="n">
+        <v>2.06755627716673</v>
+      </c>
+      <c r="CZ94" t="n">
+        <v>1.74367913274245</v>
+      </c>
+      <c r="DA94" t="n">
+        <v>2.77607463654703</v>
+      </c>
+      <c r="DB94" t="n">
+        <v>1.39645938030057</v>
+      </c>
+      <c r="DC94" t="n">
+        <v>1.889684748875922</v>
+      </c>
+      <c r="DD94" t="n">
+        <v>2.485498466021362</v>
+      </c>
+      <c r="DE94" t="n">
+        <v>2.507887322495975</v>
+      </c>
+      <c r="DF94" t="n">
+        <v>0.797486650555351</v>
+      </c>
+      <c r="DG94" t="n">
+        <v>0.7735730481797557</v>
+      </c>
+      <c r="DH94" t="n">
+        <v>0.6269697425678684</v>
+      </c>
+      <c r="DI94" t="n">
+        <v>0.2151189807515957</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="n">
+        <v>1.093038030742434</v>
+      </c>
+      <c r="C95" t="n">
+        <v>0.9976626664907199</v>
+      </c>
+      <c r="D95" t="n">
+        <v>1.039398690079184</v>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>GP</t>
+        </is>
+      </c>
+      <c r="F95" t="n">
+        <v>12.9264941321771</v>
+      </c>
+      <c r="G95" t="n">
+        <v>16.10590296960465</v>
+      </c>
+      <c r="H95" t="n">
+        <v>1800.228197775166</v>
+      </c>
+      <c r="I95" t="n">
+        <v>10</v>
+      </c>
+      <c r="J95" t="n">
+        <v>0</v>
+      </c>
+      <c r="K95" t="n">
+        <v>0</v>
+      </c>
+      <c r="L95" t="n">
+        <v>0</v>
+      </c>
+      <c r="M95" t="n">
+        <v>0</v>
+      </c>
+      <c r="N95" t="n">
+        <v>0</v>
+      </c>
+      <c r="O95" t="n">
+        <v>0</v>
+      </c>
+      <c r="P95" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q95" t="n">
+        <v>0</v>
+      </c>
+      <c r="R95" t="n">
+        <v>0</v>
+      </c>
+      <c r="S95" t="n">
+        <v>0</v>
+      </c>
+      <c r="T95" t="n">
+        <v>0</v>
+      </c>
+      <c r="U95" t="n">
+        <v>0</v>
+      </c>
+      <c r="V95" t="n">
+        <v>0</v>
+      </c>
+      <c r="W95" t="n">
+        <v>0</v>
+      </c>
+      <c r="X95" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y95" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z95" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA95" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB95" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC95" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD95" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE95" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF95" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG95" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH95" t="n">
+        <v>5.603800177219568</v>
+      </c>
+      <c r="AI95" t="n">
+        <v>62.84507459782992</v>
+      </c>
+      <c r="AJ95" t="n">
+        <v>100</v>
+      </c>
+      <c r="AK95" t="n">
+        <v>100</v>
+      </c>
+      <c r="AL95" t="n">
+        <v>100</v>
+      </c>
+      <c r="AM95" t="n">
+        <v>100</v>
+      </c>
+      <c r="AN95" t="n">
+        <v>100</v>
+      </c>
+      <c r="AO95" t="n">
+        <v>100</v>
+      </c>
+      <c r="AP95" t="n">
+        <v>100</v>
+      </c>
+      <c r="AQ95" t="n">
+        <v>100</v>
+      </c>
+      <c r="AR95" t="n">
+        <v>100</v>
+      </c>
+      <c r="AS95" t="n">
+        <v>100</v>
+      </c>
+      <c r="AT95" t="n">
+        <v>100</v>
+      </c>
+      <c r="AU95" t="n">
+        <v>100</v>
+      </c>
+      <c r="AV95" t="n">
+        <v>100</v>
+      </c>
+      <c r="AW95" t="n">
+        <v>100</v>
+      </c>
+      <c r="AX95" t="n">
+        <v>100</v>
+      </c>
+      <c r="AY95" t="n">
+        <v>100</v>
+      </c>
+      <c r="AZ95" t="n">
+        <v>100</v>
+      </c>
+      <c r="BA95" t="n">
+        <v>100</v>
+      </c>
+      <c r="BB95" t="n">
+        <v>100</v>
+      </c>
+      <c r="BC95" t="n">
+        <v>100</v>
+      </c>
+      <c r="BD95" t="n">
+        <v>100</v>
+      </c>
+      <c r="BE95" t="n">
+        <v>100</v>
+      </c>
+      <c r="BF95" t="n">
+        <v>100</v>
+      </c>
+      <c r="BG95" t="n">
+        <v>100</v>
+      </c>
+      <c r="BH95" t="n">
+        <v>13.60053088949884</v>
+      </c>
+      <c r="BI95" t="n">
+        <v>13.67759802335901</v>
+      </c>
+      <c r="BJ95" t="n">
+        <v>13.93763262327673</v>
+      </c>
+      <c r="BK95" t="n">
+        <v>14.07571881486356</v>
+      </c>
+      <c r="BL95" t="n">
+        <v>14.20251831500806</v>
+      </c>
+      <c r="BM95" t="n">
+        <v>14.43465704463001</v>
+      </c>
+      <c r="BN95" t="n">
+        <v>14.65156721460294</v>
+      </c>
+      <c r="BO95" t="n">
+        <v>14.86589750050946</v>
+      </c>
+      <c r="BP95" t="n">
+        <v>15.08816642930694</v>
+      </c>
+      <c r="BQ95" t="n">
+        <v>15.20669771128378</v>
+      </c>
+      <c r="BR95" t="n">
+        <v>15.32928057852492</v>
+      </c>
+      <c r="BS95" t="n">
+        <v>15.62009866456313</v>
+      </c>
+      <c r="BT95" t="n">
+        <v>2</v>
+      </c>
+      <c r="BU95" t="n">
+        <v>0.7875105092519158</v>
+      </c>
+      <c r="BV95" t="n">
+        <v>10</v>
+      </c>
+      <c r="BW95" t="n">
+        <v>2</v>
+      </c>
+      <c r="BX95" t="n">
+        <v>2</v>
+      </c>
+      <c r="BY95" t="n">
+        <v>2</v>
+      </c>
+      <c r="BZ95" t="n">
+        <v>2</v>
+      </c>
+      <c r="CA95" t="n">
+        <v>2</v>
+      </c>
+      <c r="CB95" t="n">
+        <v>2</v>
+      </c>
+      <c r="CC95" t="n">
+        <v>2</v>
+      </c>
+      <c r="CD95" t="n">
+        <v>2</v>
+      </c>
+      <c r="CE95" t="n">
+        <v>2</v>
+      </c>
+      <c r="CF95" t="n">
+        <v>2</v>
+      </c>
+      <c r="CG95" t="n">
+        <v>2</v>
+      </c>
+      <c r="CH95" t="n">
+        <v>2</v>
+      </c>
+      <c r="CI95" t="n">
+        <v>2</v>
+      </c>
+      <c r="CJ95" t="n">
+        <v>2</v>
+      </c>
+      <c r="CK95" t="n">
+        <v>2</v>
+      </c>
+      <c r="CL95" t="n">
+        <v>2</v>
+      </c>
+      <c r="CM95" t="n">
+        <v>1.786886752058251</v>
+      </c>
+      <c r="CN95" t="n">
+        <v>5.296021339398976</v>
+      </c>
+      <c r="CO95" t="n">
+        <v>0.7171361152768014</v>
+      </c>
+      <c r="CP95" t="n">
+        <v>0.4985831235328551</v>
+      </c>
+      <c r="CQ95" t="n">
+        <v>1.790878807847065</v>
+      </c>
+      <c r="CR95" t="n">
+        <v>0.3520809377783323</v>
+      </c>
+      <c r="CS95" t="n">
+        <v>3.429767830461451</v>
+      </c>
+      <c r="CT95" t="n">
+        <v>0.2035138648511561</v>
+      </c>
+      <c r="CU95" t="n">
+        <v>0.6370555458753984</v>
+      </c>
+      <c r="CV95" t="n">
+        <v>5.129643200395563</v>
+      </c>
+      <c r="CW95" t="n">
+        <v>1.161550939134758</v>
+      </c>
+      <c r="CX95" t="n">
+        <v>4.096622960270039</v>
+      </c>
+      <c r="CY95" t="n">
+        <v>2.540060329791054</v>
+      </c>
+      <c r="CZ95" t="n">
+        <v>2.595342296745621</v>
+      </c>
+      <c r="DA95" t="n">
+        <v>1.171152095527478</v>
+      </c>
+      <c r="DB95" t="n">
+        <v>1.813514612745408</v>
+      </c>
+      <c r="DC95" t="n">
+        <v>0.1777122990822235</v>
+      </c>
+      <c r="DD95" t="n">
+        <v>0.8514073850062971</v>
+      </c>
+      <c r="DE95" t="n">
+        <v>2.615681646358453</v>
+      </c>
+      <c r="DF95" t="n">
+        <v>2.611143265017474</v>
+      </c>
+      <c r="DG95" t="n">
+        <v>2.971056683611076</v>
+      </c>
+      <c r="DH95" t="n">
+        <v>0.7659480147239704</v>
+      </c>
+      <c r="DI95" t="n">
+        <v>0.2650607487887984</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="n">
+        <v>2.096332362339556</v>
+      </c>
+      <c r="C96" t="n">
+        <v>0.823891768739704</v>
+      </c>
+      <c r="D96" t="n">
+        <v>1.592330677012925</v>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>GP</t>
+        </is>
+      </c>
+      <c r="F96" t="n">
+        <v>1.293691609628675</v>
+      </c>
+      <c r="G96" t="n">
+        <v>32.42622500538238</v>
+      </c>
+      <c r="H96" t="n">
+        <v>1800.01452668222</v>
+      </c>
+      <c r="I96" t="n">
+        <v>10</v>
+      </c>
+      <c r="J96" t="n">
+        <v>0</v>
+      </c>
+      <c r="K96" t="n">
+        <v>0</v>
+      </c>
+      <c r="L96" t="n">
+        <v>0</v>
+      </c>
+      <c r="M96" t="n">
+        <v>0.0003579395710438354</v>
+      </c>
+      <c r="N96" t="n">
+        <v>0.001567534835338523</v>
+      </c>
+      <c r="O96" t="n">
+        <v>0.003993337880586234</v>
+      </c>
+      <c r="P96" t="n">
+        <v>0.008439582125218238</v>
+      </c>
+      <c r="Q96" t="n">
+        <v>0.01640800301545031</v>
+      </c>
+      <c r="R96" t="n">
+        <v>0.06663647777168426</v>
+      </c>
+      <c r="S96" t="n">
+        <v>0.2033290761515849</v>
+      </c>
+      <c r="T96" t="n">
+        <v>0.4864838169088058</v>
+      </c>
+      <c r="U96" t="n">
+        <v>1.038076777260982</v>
+      </c>
+      <c r="V96" t="n">
+        <v>2.069422809577719</v>
+      </c>
+      <c r="W96" t="n">
+        <v>3.924374038092847</v>
+      </c>
+      <c r="X96" t="n">
+        <v>7.093793657402697</v>
+      </c>
+      <c r="Y96" t="n">
+        <v>12.118638630603</v>
+      </c>
+      <c r="Z96" t="n">
+        <v>19.35949325876344</v>
+      </c>
+      <c r="AA96" t="n">
+        <v>28.49889210000346</v>
+      </c>
+      <c r="AB96" t="n">
+        <v>37.96749972106944</v>
+      </c>
+      <c r="AC96" t="n">
+        <v>42.82218475445768</v>
+      </c>
+      <c r="AD96" t="n">
+        <v>48.50080044963608</v>
+      </c>
+      <c r="AE96" t="n">
+        <v>55.98177154589919</v>
+      </c>
+      <c r="AF96" t="n">
+        <v>64.58600732466428</v>
+      </c>
+      <c r="AG96" t="n">
+        <v>72.24294096392786</v>
+      </c>
+      <c r="AH96" t="n">
+        <v>72.8537739180217</v>
+      </c>
+      <c r="AI96" t="n">
+        <v>74.27153899796554</v>
+      </c>
+      <c r="AJ96" t="n">
+        <v>77.69340084003599</v>
+      </c>
+      <c r="AK96" t="n">
+        <v>79.72724617103781</v>
+      </c>
+      <c r="AL96" t="n">
+        <v>82.06184773703042</v>
+      </c>
+      <c r="AM96" t="n">
+        <v>85.4340250487258</v>
+      </c>
+      <c r="AN96" t="n">
+        <v>89.84466564201921</v>
+      </c>
+      <c r="AO96" t="n">
+        <v>94.9415406211176</v>
+      </c>
+      <c r="AP96" t="n">
+        <v>99.55137343459641</v>
+      </c>
+      <c r="AQ96" t="n">
+        <v>100</v>
+      </c>
+      <c r="AR96" t="n">
+        <v>100</v>
+      </c>
+      <c r="AS96" t="n">
+        <v>100</v>
+      </c>
+      <c r="AT96" t="n">
+        <v>100</v>
+      </c>
+      <c r="AU96" t="n">
+        <v>100</v>
+      </c>
+      <c r="AV96" t="n">
+        <v>100</v>
+      </c>
+      <c r="AW96" t="n">
+        <v>100</v>
+      </c>
+      <c r="AX96" t="n">
+        <v>100</v>
+      </c>
+      <c r="AY96" t="n">
+        <v>100</v>
+      </c>
+      <c r="AZ96" t="n">
+        <v>100</v>
+      </c>
+      <c r="BA96" t="n">
+        <v>100</v>
+      </c>
+      <c r="BB96" t="n">
+        <v>100</v>
+      </c>
+      <c r="BC96" t="n">
+        <v>100</v>
+      </c>
+      <c r="BD96" t="n">
+        <v>100</v>
+      </c>
+      <c r="BE96" t="n">
+        <v>100</v>
+      </c>
+      <c r="BF96" t="n">
+        <v>100</v>
+      </c>
+      <c r="BG96" t="n">
+        <v>100</v>
+      </c>
+      <c r="BH96" t="n">
+        <v>4.862792662205411</v>
+      </c>
+      <c r="BI96" t="n">
+        <v>5.052054040410749</v>
+      </c>
+      <c r="BJ96" t="n">
+        <v>5.687388368435625</v>
+      </c>
+      <c r="BK96" t="n">
+        <v>6.041096623575266</v>
+      </c>
+      <c r="BL96" t="n">
+        <v>6.390736394327344</v>
+      </c>
+      <c r="BM96" t="n">
+        <v>7.266134308130987</v>
+      </c>
+      <c r="BN96" t="n">
+        <v>8.901557117402431</v>
+      </c>
+      <c r="BO96" t="n">
+        <v>10.19402962912853</v>
+      </c>
+      <c r="BP96" t="n">
+        <v>11.58213356867482</v>
+      </c>
+      <c r="BQ96" t="n">
+        <v>15.31730309683808</v>
+      </c>
+      <c r="BR96" t="n">
+        <v>18.80983382053558</v>
+      </c>
+      <c r="BS96" t="n">
+        <v>25.72866751858037</v>
+      </c>
+      <c r="BT96" t="n">
+        <v>10.51460068099686</v>
+      </c>
+      <c r="BU96" t="n">
+        <v>6.426733613800894</v>
+      </c>
+      <c r="BV96" t="n">
+        <v>10</v>
+      </c>
+      <c r="BW96" t="n">
+        <v>2.572866751858037</v>
+      </c>
+      <c r="BX96" t="n">
+        <v>2.827867288859295</v>
+      </c>
+      <c r="BY96" t="n">
+        <v>3.108141297105798</v>
+      </c>
+      <c r="BZ96" t="n">
+        <v>3.416193666807957</v>
+      </c>
+      <c r="CA96" t="n">
+        <v>3.754777551460057</v>
+      </c>
+      <c r="CB96" t="n">
+        <v>4.126918973572622</v>
+      </c>
+      <c r="CC96" t="n">
+        <v>4.535943869114421</v>
+      </c>
+      <c r="CD96" t="n">
+        <v>4.985507812368161</v>
+      </c>
+      <c r="CE96" t="n">
+        <v>5.479628686859526</v>
+      </c>
+      <c r="CF96" t="n">
+        <v>6.022722594349134</v>
+      </c>
+      <c r="CG96" t="n">
+        <v>6.619643322816529</v>
+      </c>
+      <c r="CH96" t="n">
+        <v>7.275725726173012</v>
+      </c>
+      <c r="CI96" t="n">
+        <v>7.996833403400425</v>
+      </c>
+      <c r="CJ96" t="n">
+        <v>8.789411103238191</v>
+      </c>
+      <c r="CK96" t="n">
+        <v>9.660542322774518</v>
+      </c>
+      <c r="CL96" t="n">
+        <v>10.6180126147171</v>
+      </c>
+      <c r="CM96" t="n">
+        <v>2.569150545895141</v>
+      </c>
+      <c r="CN96" t="n">
+        <v>0.8288085543138948</v>
+      </c>
+      <c r="CO96" t="n">
+        <v>2.037006327891675</v>
+      </c>
+      <c r="CP96" t="n">
+        <v>3.312625154814619</v>
+      </c>
+      <c r="CQ96" t="n">
+        <v>6.742672967147882</v>
+      </c>
+      <c r="CR96" t="n">
+        <v>3.037008365623905</v>
+      </c>
+      <c r="CS96" t="n">
+        <v>1.944919901464701</v>
+      </c>
+      <c r="CT96" t="n">
+        <v>1.445892681066965</v>
+      </c>
+      <c r="CU96" t="n">
+        <v>4.413404858446</v>
+      </c>
+      <c r="CV96" t="n">
+        <v>2.752691111459953</v>
+      </c>
+      <c r="CW96" t="n">
+        <v>1.763834988852373</v>
+      </c>
+      <c r="CX96" t="n">
+        <v>3.712888059357354</v>
+      </c>
+      <c r="CY96" t="n">
+        <v>3.668147813281237</v>
+      </c>
+      <c r="CZ96" t="n">
+        <v>1.861921805064512</v>
+      </c>
+      <c r="DA96" t="n">
+        <v>3.019254165329599</v>
+      </c>
+      <c r="DB96" t="n">
+        <v>1.336365103302541</v>
+      </c>
+      <c r="DC96" t="n">
+        <v>3.762624723921647</v>
+      </c>
+      <c r="DD96" t="n">
+        <v>2.130156672320823</v>
+      </c>
+      <c r="DE96" t="n">
+        <v>1.59133732043378</v>
+      </c>
+      <c r="DF96" t="n">
+        <v>7.643059236546639</v>
+      </c>
+      <c r="DG96" t="n">
+        <v>10.04850948925729</v>
+      </c>
+      <c r="DH96" t="n">
+        <v>1.375705768538263</v>
+      </c>
+      <c r="DI96" t="n">
+        <v>0.6395708359206526</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
